--- a/doc/ue_compile.xlsx
+++ b/doc/ue_compile.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\ue\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97490B80-50D9-4B6A-AEE5-B1F5ADBF0EA2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B4DA734-B100-4F70-B232-EC44B40A651E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="UnrealBuildTool" sheetId="3" r:id="rId2"/>
+    <sheet name="UBT流程" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="119">
   <si>
     <t>工程</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -110,16 +110,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>UnrealBuildTool</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>UEBuildModuleCPP</t>
-  </si>
-  <si>
-    <t>public override List&lt;FileItem&gt; Compile(ReadOnlyTargetRules Target, UEToolChain ToolChain, CppCompileEnvironment BinaryCompileEnvironment, List&lt;FileReference&gt; SpecificFilesToCompile, ISourceFileWorkingSet WorkingSet, IActionGraphBuilder Graph)</t>
-  </si>
-  <si>
     <t>private static int Main(string[] ArgumentsArray)</t>
   </si>
   <si>
@@ -318,13 +308,158 @@
   </si>
   <si>
     <t>EngineRulesAssembly = CreateEngineOrEnterpriseRulesAssembly(EngineScope, UnrealBuildTool.GetExtensionDirs(UnrealBuildTool.EngineDirectory), ProjectFileGenerator.EngineProjectFileNameBase, IncludedPlugins, UnrealBuildTool.IsEngineInstalled() || bUsePrecompiled, bSkipCompile, null);</t>
+  </si>
+  <si>
+    <t>private static int Main(string[] ArgumentsArray)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Debug Editor</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Module.Core.12_of_15.cpp</t>
+  </si>
+  <si>
+    <t>Module.Core.3_of_15.cpp.obj.response</t>
+  </si>
+  <si>
+    <t>UE4Editor-Core-Win64-Debug.dll.response</t>
+  </si>
+  <si>
+    <t>UE4Editor-Core-Win64-Debug.lib.response</t>
+  </si>
+  <si>
+    <t>ActionGraph.GatherAllOutdatedActions收集所有需要执行cl-filter.exe的列表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>using(Timeline.ScopeEvent("ActionGraph.ExecuteActions()"))</t>
+  </si>
+  <si>
+    <t>ActionGraph.ExecuteActions(BuildConfiguration, MergedActionsToExecute);</t>
+  </si>
+  <si>
+    <t>具体执行</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ParallelExecutor.ExecuteActions: [F:\UE\UE_4.26_Test\Engine\Build\Windows\cl-filter\cl-filter.exe</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ParallelExecutor.ExecuteActions: [-dependencies=F:\UE\UE_4.26_Test\Engine\Intermediate\Build\Win64\UE4Editor\Debug\Core\SharedPCH.Core.ShadowErrors.h.txt -compiler="C:\Program Files (x86)\Microsoft Visual Studio\2019\Professional\VC\Tools\MSVC\14.29.30133\bin\HostX64\x64\cl.exe" -- "C:\Program Files (x86)\Microsoft Visual Studio\2019\Professional\VC\Tools\MSVC\14.29.30133\bin\HostX64\x64\cl.exe"  @"F:\UE\UE_4.26_Test\Engine\Intermediate\Build\Win64\UE4Editor\Debug\Core\SharedPCH.Core.ShadowErrors.h.pch.response" /showIncludes</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Module.Core.6_of_15.cpp.obj</t>
+  </si>
+  <si>
+    <t>UE4Editor-Core-Win64-Debug.suppressed.lib</t>
+  </si>
+  <si>
+    <t>UE4Editor-Core-Win64-Debug.lib</t>
+  </si>
+  <si>
+    <t>Module.Core.7_of_15.cpp.txt</t>
+  </si>
+  <si>
+    <t>包含那些cpp文件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>怎么编译，编译选项都是那些</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ManagedProcess.CreateManagedProcessPortable:   [C:\Program Files (x86)\Microsoft Visual Studio\2019\Professional\VC\Tools\MSVC\14.29.30133\bin\HostX64\x64\lib.exe</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ManagedProcess.CreateManagedProcessPortable:   [@"F:\UE\UE_4.26_Test\Engine\Plugins\Runtime\AudioSynesthesia\Intermediate\Build\Win64\UE4Editor\Debug\AudioSynesthesiaCore\UE4Editor-AudioSynesthesiaCore-Win64-Debug.lib.response"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ManagedProcess.CreateManagedProcessPortable:   [F:\UE\UE_4.26_Test\Engine\Source</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>先编译</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在链接</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>先生成待编译文件信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>具体是在生成待编译文件信息的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>编译，需要用上面返回的数据去生成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>以VC举例：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>link.exe 创建.lib 与.dll 文件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>下面的程序就是先生成待执行的文件列表，在通过cl-filter.exe编译</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">cl.exe </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>编译成</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">.obj </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>文件</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>makefile就是linux下面的文件命名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -363,6 +498,19 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -384,11 +532,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -798,7 +947,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B7:G40"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J30" sqref="J30"/>
     </sheetView>
   </sheetViews>
@@ -935,539 +1084,536 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D70A14FB-2D24-4481-83FD-821E88894988}">
-  <dimension ref="B3:E10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EBB797F9-26C3-47AB-9485-3EC52454575D}">
+  <dimension ref="B2:R134"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I27" sqref="I27"/>
+      <selection activeCell="P20" sqref="P20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="3" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B3" t="s">
+    <row r="2" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B2" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+    </row>
+    <row r="3" spans="2:18" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="B3" s="1"/>
+      <c r="C3" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+    </row>
+    <row r="4" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B4" s="1"/>
+      <c r="C4" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+    </row>
+    <row r="6" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B6" s="3" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="7" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="C7" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="7" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="C7" t="s">
+    <row r="9" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="E9" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="10" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="E10" t="s">
+    <row r="11" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="C11" t="s">
         <v>25</v>
       </c>
     </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EBB797F9-26C3-47AB-9485-3EC52454575D}">
-  <dimension ref="B7:R134"/>
-  <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A108" workbookViewId="0">
-      <selection activeCell="B120" sqref="B120"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
-  <sheetData>
-    <row r="7" spans="3:18" x14ac:dyDescent="0.2">
-      <c r="C7" t="s">
+    <row r="12" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="E12" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="9" spans="3:18" x14ac:dyDescent="0.2">
-      <c r="E9" t="s">
+      <c r="R12" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="11" spans="3:18" x14ac:dyDescent="0.2">
-      <c r="C11" t="s">
+    <row r="15" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="C15" t="s">
         <v>28</v>
-      </c>
-    </row>
-    <row r="12" spans="3:18" x14ac:dyDescent="0.2">
-      <c r="E12" t="s">
-        <v>29</v>
-      </c>
-      <c r="R12" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="15" spans="3:18" x14ac:dyDescent="0.2">
-      <c r="C15" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="17" spans="3:11" x14ac:dyDescent="0.2">
       <c r="E17" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
     <row r="18" spans="3:11" x14ac:dyDescent="0.2">
       <c r="E18" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="19" spans="3:11" x14ac:dyDescent="0.2">
       <c r="F19" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="20" spans="3:11" x14ac:dyDescent="0.2">
       <c r="F20" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
     <row r="21" spans="3:11" x14ac:dyDescent="0.2">
       <c r="E21" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
     </row>
     <row r="24" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C24" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="25" spans="3:11" x14ac:dyDescent="0.2">
       <c r="K25" s="3" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="26" spans="3:11" x14ac:dyDescent="0.2">
       <c r="E26" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
     <row r="27" spans="3:11" x14ac:dyDescent="0.2">
       <c r="E27" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
     <row r="28" spans="3:11" x14ac:dyDescent="0.2">
       <c r="E28" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="29" spans="3:11" x14ac:dyDescent="0.2">
       <c r="E29" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="30" spans="3:11" x14ac:dyDescent="0.2">
       <c r="F30" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="31" spans="3:11" x14ac:dyDescent="0.2">
       <c r="F31" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="32" spans="3:11" x14ac:dyDescent="0.2">
       <c r="G32" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="33" spans="3:11" x14ac:dyDescent="0.2">
       <c r="G33" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
     <row r="34" spans="3:11" x14ac:dyDescent="0.2">
       <c r="F34" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
     </row>
     <row r="35" spans="3:11" x14ac:dyDescent="0.2">
       <c r="E35" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
     </row>
     <row r="43" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C43" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="45" spans="3:11" x14ac:dyDescent="0.2">
       <c r="G45" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="46" spans="3:11" x14ac:dyDescent="0.2">
       <c r="J46" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="47" spans="3:11" x14ac:dyDescent="0.2">
       <c r="J47" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="48" spans="3:11" x14ac:dyDescent="0.2">
       <c r="K48" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="49" spans="10:14" x14ac:dyDescent="0.2">
       <c r="K49" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="50" spans="10:14" x14ac:dyDescent="0.2">
       <c r="L50" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="51" spans="10:14" x14ac:dyDescent="0.2">
       <c r="L51" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="52" spans="10:14" x14ac:dyDescent="0.2">
       <c r="M52" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="53" spans="10:14" x14ac:dyDescent="0.2">
       <c r="M53" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="54" spans="10:14" x14ac:dyDescent="0.2">
       <c r="M54" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="55" spans="10:14" x14ac:dyDescent="0.2">
       <c r="N55" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="57" spans="10:14" x14ac:dyDescent="0.2">
       <c r="N57" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="59" spans="10:14" x14ac:dyDescent="0.2">
       <c r="N59" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="60" spans="10:14" x14ac:dyDescent="0.2">
       <c r="N60" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="61" spans="10:14" x14ac:dyDescent="0.2">
       <c r="M61" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
     </row>
     <row r="62" spans="10:14" x14ac:dyDescent="0.2">
       <c r="L62" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
     </row>
     <row r="63" spans="10:14" x14ac:dyDescent="0.2">
       <c r="K63" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
     </row>
     <row r="64" spans="10:14" x14ac:dyDescent="0.2">
       <c r="J64" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
     </row>
     <row r="66" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B66" s="1" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="67" spans="2:8" x14ac:dyDescent="0.2">
       <c r="D67" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="68" spans="2:8" x14ac:dyDescent="0.2">
       <c r="F68" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="69" spans="2:8" x14ac:dyDescent="0.2">
       <c r="G69" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="70" spans="2:8" x14ac:dyDescent="0.2">
       <c r="G70" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="71" spans="2:8" x14ac:dyDescent="0.2">
       <c r="G71" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="72" spans="2:8" x14ac:dyDescent="0.2">
       <c r="H72" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="73" spans="2:8" x14ac:dyDescent="0.2">
       <c r="G73" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
     </row>
     <row r="76" spans="2:8" x14ac:dyDescent="0.2">
       <c r="F76" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="77" spans="2:8" x14ac:dyDescent="0.2">
       <c r="F77" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="79" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="83" spans="3:6" x14ac:dyDescent="0.2">
       <c r="D83" s="1" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="84" spans="3:6" x14ac:dyDescent="0.2">
       <c r="D84" s="2" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="88" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C88" t="s">
-        <v>26</v>
+        <v>88</v>
       </c>
     </row>
     <row r="89" spans="3:6" x14ac:dyDescent="0.2">
       <c r="E89" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="90" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C90" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="91" spans="3:6" x14ac:dyDescent="0.2">
       <c r="E91" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="92" spans="3:6" x14ac:dyDescent="0.2">
       <c r="E92" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="93" spans="3:6" x14ac:dyDescent="0.2">
       <c r="E93" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="94" spans="3:6" x14ac:dyDescent="0.2">
       <c r="F94" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="95" spans="3:6" x14ac:dyDescent="0.2">
       <c r="E95" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
     </row>
     <row r="96" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C96" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row r="97" spans="5:9" x14ac:dyDescent="0.2">
       <c r="E97" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="98" spans="5:9" x14ac:dyDescent="0.2">
       <c r="E98" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="99" spans="5:9" x14ac:dyDescent="0.2">
       <c r="F99" s="1" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="G99" s="1"/>
     </row>
     <row r="100" spans="5:9" x14ac:dyDescent="0.2">
       <c r="F100" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="101" spans="5:9" x14ac:dyDescent="0.2">
       <c r="F101" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="102" spans="5:9" x14ac:dyDescent="0.2">
       <c r="F102" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="103" spans="5:9" x14ac:dyDescent="0.2">
       <c r="G103" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="104" spans="5:9" x14ac:dyDescent="0.2">
       <c r="G104" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="105" spans="5:9" x14ac:dyDescent="0.2">
       <c r="H105" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
     <row r="106" spans="5:9" x14ac:dyDescent="0.2">
       <c r="H106" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="107" spans="5:9" x14ac:dyDescent="0.2">
       <c r="H107" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="108" spans="5:9" x14ac:dyDescent="0.2">
       <c r="I108" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
     </row>
     <row r="109" spans="5:9" x14ac:dyDescent="0.2">
       <c r="H109" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
     </row>
     <row r="110" spans="5:9" x14ac:dyDescent="0.2">
       <c r="G110" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
     </row>
     <row r="111" spans="5:9" x14ac:dyDescent="0.2">
       <c r="F111" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
     </row>
     <row r="112" spans="5:9" x14ac:dyDescent="0.2">
       <c r="E112" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
     </row>
     <row r="113" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C113" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
     <row r="114" spans="3:6" x14ac:dyDescent="0.2">
       <c r="E114" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
     </row>
     <row r="115" spans="3:6" x14ac:dyDescent="0.2">
       <c r="E115" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
     </row>
     <row r="116" spans="3:6" x14ac:dyDescent="0.2">
       <c r="E116" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="117" spans="3:6" x14ac:dyDescent="0.2">
       <c r="F117" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
     </row>
     <row r="118" spans="3:6" x14ac:dyDescent="0.2">
       <c r="E118" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
     </row>
     <row r="119" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C119" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
     </row>
     <row r="120" spans="3:6" x14ac:dyDescent="0.2">
       <c r="E120" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
     </row>
     <row r="121" spans="3:6" x14ac:dyDescent="0.2">
       <c r="E121" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
     </row>
     <row r="122" spans="3:6" x14ac:dyDescent="0.2">
       <c r="E122" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="123" spans="3:6" x14ac:dyDescent="0.2">
       <c r="F123" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
     </row>
     <row r="124" spans="3:6" x14ac:dyDescent="0.2">
       <c r="E124" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
     </row>
     <row r="125" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C125" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
     </row>
     <row r="126" spans="3:6" x14ac:dyDescent="0.2">
       <c r="E126" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
     </row>
     <row r="128" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C128" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
     </row>
     <row r="129" spans="3:14" x14ac:dyDescent="0.2">
       <c r="E129" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
     </row>
     <row r="130" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C130" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="131" spans="3:14" x14ac:dyDescent="0.2">
       <c r="D131" s="1" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
     </row>
     <row r="133" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C133" s="1" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="D133" s="1"/>
       <c r="E133" s="1"/>
@@ -1483,7 +1629,7 @@
     </row>
     <row r="134" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C134" s="1" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="D134" s="1"/>
       <c r="E134" s="1"/>
@@ -1502,4 +1648,169 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6FED2DB9-968D-4468-9AE0-3CE8F1D4D2CC}">
+  <dimension ref="C7:O32"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I5" sqref="I5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="7" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="C7" s="1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="9" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="E9" s="1" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="10" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="F10" t="s">
+        <v>90</v>
+      </c>
+      <c r="K10" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="L10" s="2"/>
+      <c r="M10" s="2"/>
+      <c r="N10" s="2"/>
+      <c r="O10" s="1" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="11" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="F11" t="s">
+        <v>91</v>
+      </c>
+      <c r="K11" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="L11" s="2"/>
+      <c r="M11" s="2"/>
+      <c r="N11" s="2"/>
+      <c r="O11" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="12" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="F12" t="s">
+        <v>92</v>
+      </c>
+      <c r="K12" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="L12" s="2"/>
+      <c r="M12" s="2"/>
+      <c r="N12" s="2"/>
+      <c r="O12" s="1" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="13" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="F13" t="s">
+        <v>93</v>
+      </c>
+      <c r="K13" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="L13" s="2"/>
+      <c r="M13" s="2"/>
+      <c r="N13" s="2"/>
+    </row>
+    <row r="16" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="E16" s="1" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="17" spans="6:14" x14ac:dyDescent="0.2">
+      <c r="F17" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="18" spans="6:14" x14ac:dyDescent="0.2">
+      <c r="F18" t="s">
+        <v>100</v>
+      </c>
+      <c r="M18" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="19" spans="6:14" x14ac:dyDescent="0.2">
+      <c r="F19" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="20" spans="6:14" x14ac:dyDescent="0.2">
+      <c r="F20" t="s">
+        <v>102</v>
+      </c>
+      <c r="M20" s="1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="21" spans="6:14" x14ac:dyDescent="0.2">
+      <c r="M21" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="22" spans="6:14" x14ac:dyDescent="0.2">
+      <c r="M22" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="23" spans="6:14" x14ac:dyDescent="0.2">
+      <c r="N23" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="24" spans="6:14" x14ac:dyDescent="0.2">
+      <c r="M24" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="25" spans="6:14" x14ac:dyDescent="0.2">
+      <c r="M25" s="1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="26" spans="6:14" x14ac:dyDescent="0.2">
+      <c r="M26" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="27" spans="6:14" x14ac:dyDescent="0.2">
+      <c r="M27" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="29" spans="6:14" x14ac:dyDescent="0.2">
+      <c r="M29" s="1" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="30" spans="6:14" x14ac:dyDescent="0.2">
+      <c r="M30" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="31" spans="6:14" x14ac:dyDescent="0.2">
+      <c r="M31" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="32" spans="6:14" x14ac:dyDescent="0.2">
+      <c r="M32" t="s">
+        <v>108</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/doc/ue_compile.xlsx
+++ b/doc/ue_compile.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\ue\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B4DA734-B100-4F70-B232-EC44B40A651E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48DC5833-A315-4067-8AA1-28C7DEB0A9E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,17 +17,25 @@
     <sheet name="UnrealBuildTool" sheetId="3" r:id="rId2"/>
     <sheet name="UBT流程" sheetId="4" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="156">
   <si>
     <t>工程</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -314,10 +322,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Debug Editor</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Module.Core.12_of_15.cpp</t>
   </si>
   <si>
@@ -392,15 +396,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>先生成待编译文件信息</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>具体是在生成待编译文件信息的</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>编译，需要用上面返回的数据去生成</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -451,7 +447,161 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>makefile就是linux下面的文件命名</t>
+    <t>Debug</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>先生成待编译文件信息（MakeFile）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>编译，需要用上面返回的数据去生成（BUILD）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>makefile就是linux下面的文件命名方式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DebugGame</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>依赖的是引擎Intermediate\Build\Win64\UE4Editor\Debug目录信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DebugEditor</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>依赖的是项目\Intermediate\Build\Win64\MyTest001\Development目录的信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>依赖的是项目Intermediate\Build\Win64\MyTest001\Debug\目录的信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>链接生成exe</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[F:\UE\UE_4.26_Test\Engine\Build\Windows\link-filter\link-filter.exe</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[-- "C:\Program Files (x86)\Microsoft Visual Studio\2019\Professional\VC\Tools\MSVC\14.29.30133\bin\HostX64\x64\link.exe" @"F:\UEProject\MyTest001\Intermediate\Build\Win64\MyTest001\DebugGame\MyTest001-Win64-DebugGame.exe.response"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[F:\UE\UE_4.26_Test\Engine\Source</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[72/73] MyTest001-Win64-DebugGame.exe</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Creating library F:\UEProject\MyTest001\Binaries\Win64\MyTest001-Win64-DebugGame.lib and object F:\UEProject\MyTest001\Binaries\Win64\MyTest001-Win64-DebugGame.exp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>这个.response全部是依赖的.obj文件，原理就是将所有的obj链接在一起生成exe</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不会生成lib和dll，所有的代码全部直接生成.exe</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>可以看到是没有lib和dll存在了</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>引擎设置InstalledBuild.txt后，不会生成.cpp和.response了，但是还是会编译这两个，如果没有了会报错</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UBT指令：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Command =-Target=MyTest001 WIN64 DebugGame -Project="F:\UEProject\MyTest001\MyTest001.uproject" -WaitMutex -FromMsBuild</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ParallelExecutor.ExecuteActions: [-dependencies=F:\UEProject\MyTest001\Intermediate\Build\Win64\MyTest001\Development\Core\Module.Core.5_of_15.cpp.txt -compiler="C:\Program Files (x86)\Microsoft Visual Studio\2019\Professional\VC\Tools\MSVC\14.29.30133\bin\HostX64\x64\cl.exe" -- "C:\Program Files (x86)\Microsoft Visual Studio\2019\Professional\VC\Tools\MSVC\14.29.30133\bin\HostX64\x64\cl.exe"  @"F:\UEProject\MyTest001\Intermediate\Build\Win64\MyTest001\Development\Core\Module.Core.5_of_15.cpp.obj.response" /showIncludes</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>先编译，生成.obj文件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>原因是：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CreateMakefile函数里面，会通过调用if(!TargetMakefile.IsValidForSourceFiles(Makefile, TargetDescriptor.ProjectFile, TargetDescriptor.Platform, WorkingSet, out Reason))，检测所需要的源文件是否都存在</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>如果不存在，会报错：BuildMode.CreateMakefile: Invalidating makefile for MyTest001 (Module.Core.15_of_15.cpp deleted)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>然后有需要重编了,，变回报错：原因是引擎设置了InstalledBuild.txt,但是重编的时候在引擎目录下找不到对应的.prebuild函数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>设置了InstallBuild.txt就相当于设置了prebuild</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UnrealBuildTool.IsEngineInstalled() || bUsePrecompiled</t>
+  </si>
+  <si>
+    <t>或关系</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>具体和上面的一样</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>依赖的是项目Intermediate\Build\Win64\MyTest001\Development\目录的信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DevelopmentEditor</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>依赖的是引擎Intermediate\Build\Win64\UE4Editor\Development目录信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>其他和上面类似</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DirectoryReference OutputDirectory;</t>
+  </si>
+  <si>
+    <t>if (ProjectFile != null &amp;&amp; (bCompileMonolithic || !bUseSharedBuildEnvironment) &amp;&amp; Rules.File.IsUnderDirectory(ProjectDirectory))</t>
+  </si>
+  <si>
+    <t>OutputDirectory = GetOutputDirectoryForExecutable(ProjectDirectory, Rules.File);</t>
+  </si>
+  <si>
+    <t>else</t>
+  </si>
+  <si>
+    <t>OutputDirectory = GetOutputDirectoryForExecutable(UnrealBuildTool.EngineDirectory, Rules.File);</t>
+  </si>
+  <si>
+    <t>为什么不从引擎里面的obj????!!!!</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -459,7 +609,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -511,6 +661,15 @@
       <family val="2"/>
       <charset val="134"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -532,12 +691,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -947,7 +1108,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B7:G40"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A61" workbookViewId="0">
       <selection activeCell="J30" sqref="J30"/>
     </sheetView>
   </sheetViews>
@@ -1088,14 +1249,14 @@
   <dimension ref="B2:R134"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="P20" sqref="P20"/>
+      <selection activeCell="C32" sqref="C32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="2" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B2" s="1" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
@@ -1104,7 +1265,7 @@
     <row r="3" spans="2:18" ht="17.25" x14ac:dyDescent="0.3">
       <c r="B3" s="1"/>
       <c r="C3" s="4" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
@@ -1112,14 +1273,14 @@
     <row r="4" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B4" s="1"/>
       <c r="C4" s="1" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
     </row>
     <row r="6" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B6" s="3" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
     </row>
     <row r="7" spans="2:18" x14ac:dyDescent="0.2">
@@ -1652,161 +1813,479 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6FED2DB9-968D-4468-9AE0-3CE8F1D4D2CC}">
-  <dimension ref="C7:O32"/>
+  <dimension ref="C7:S130"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+    <sheetView tabSelected="1" topLeftCell="B106" workbookViewId="0">
+      <selection activeCell="M120" sqref="M120"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="3" max="3" width="12.875" style="5" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="7" spans="3:15" x14ac:dyDescent="0.2">
-      <c r="C7" s="1" t="s">
+    <row r="7" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="C7" s="3" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="8" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="C8" s="3"/>
+      <c r="D8" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="10" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="D10" s="1" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="11" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="E11" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="9" spans="3:15" x14ac:dyDescent="0.2">
-      <c r="E9" s="1" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="10" spans="3:15" x14ac:dyDescent="0.2">
-      <c r="F10" t="s">
-        <v>90</v>
-      </c>
-      <c r="K10" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="L10" s="2"/>
-      <c r="M10" s="2"/>
-      <c r="N10" s="2"/>
-      <c r="O10" s="1" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="11" spans="3:15" x14ac:dyDescent="0.2">
-      <c r="F11" t="s">
-        <v>91</v>
-      </c>
-      <c r="K11" s="2" t="s">
-        <v>105</v>
-      </c>
+      <c r="J11" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="K11" s="2"/>
       <c r="L11" s="2"/>
       <c r="M11" s="2"/>
-      <c r="N11" s="2"/>
-      <c r="O11" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="12" spans="3:15" x14ac:dyDescent="0.2">
-      <c r="F12" t="s">
-        <v>92</v>
-      </c>
-      <c r="K12" s="2" t="s">
-        <v>105</v>
-      </c>
+      <c r="N11" s="1" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="12" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="E12" t="s">
+        <v>90</v>
+      </c>
+      <c r="J12" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="K12" s="2"/>
       <c r="L12" s="2"/>
       <c r="M12" s="2"/>
-      <c r="N12" s="2"/>
-      <c r="O12" s="1" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="13" spans="3:15" x14ac:dyDescent="0.2">
-      <c r="F13" t="s">
-        <v>93</v>
-      </c>
-      <c r="K13" s="2" t="s">
-        <v>105</v>
-      </c>
+      <c r="N12" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="13" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="E13" t="s">
+        <v>91</v>
+      </c>
+      <c r="J13" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="K13" s="2"/>
       <c r="L13" s="2"/>
       <c r="M13" s="2"/>
-      <c r="N13" s="2"/>
-    </row>
-    <row r="16" spans="3:15" x14ac:dyDescent="0.2">
-      <c r="E16" s="1" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="17" spans="6:14" x14ac:dyDescent="0.2">
-      <c r="F17" t="s">
+      <c r="N13" s="1" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="14" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="E14" t="s">
+        <v>92</v>
+      </c>
+      <c r="J14" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="K14" s="2"/>
+      <c r="L14" s="2"/>
+      <c r="M14" s="2"/>
+    </row>
+    <row r="17" spans="4:13" x14ac:dyDescent="0.2">
+      <c r="D17" s="1" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="18" spans="4:13" x14ac:dyDescent="0.2">
+      <c r="E18" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="19" spans="4:13" x14ac:dyDescent="0.2">
+      <c r="E19" t="s">
+        <v>99</v>
+      </c>
+      <c r="L19" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="20" spans="4:13" x14ac:dyDescent="0.2">
+      <c r="E20" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="21" spans="4:13" x14ac:dyDescent="0.2">
+      <c r="E21" t="s">
+        <v>101</v>
+      </c>
+      <c r="L21" s="1" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="22" spans="4:13" x14ac:dyDescent="0.2">
+      <c r="L22" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="23" spans="4:13" x14ac:dyDescent="0.2">
+      <c r="L23" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="24" spans="4:13" x14ac:dyDescent="0.2">
+      <c r="M24" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="25" spans="4:13" x14ac:dyDescent="0.2">
+      <c r="L25" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="26" spans="4:13" x14ac:dyDescent="0.2">
+      <c r="L26" s="1" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="27" spans="4:13" x14ac:dyDescent="0.2">
+      <c r="L27" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="28" spans="4:13" x14ac:dyDescent="0.2">
+      <c r="L28" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="30" spans="4:13" x14ac:dyDescent="0.2">
+      <c r="L30" s="1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="31" spans="4:13" x14ac:dyDescent="0.2">
+      <c r="L31" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="32" spans="4:13" x14ac:dyDescent="0.2">
+      <c r="L32" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="33" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L33" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="37" spans="3:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C37" s="3" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="38" spans="3:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D38" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="39" spans="3:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="40" spans="3:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D40" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="41" spans="3:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="42" spans="3:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="43" spans="3:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="44" spans="3:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="45" spans="3:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="46" spans="3:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="C50" s="3" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="C51" s="3"/>
+      <c r="D51" s="1" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="D52" s="2" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="D54" s="1" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="E55" t="s">
+        <v>89</v>
+      </c>
+      <c r="J55" s="1" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="18" spans="6:14" x14ac:dyDescent="0.2">
-      <c r="F18" t="s">
-        <v>100</v>
-      </c>
-      <c r="M18" t="s">
+      <c r="K55" s="2"/>
+      <c r="L55" s="2"/>
+      <c r="M55" s="2"/>
+      <c r="N55" s="1" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="E56" t="s">
+        <v>90</v>
+      </c>
+      <c r="J56" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="K56" s="2"/>
+      <c r="L56" s="2"/>
+      <c r="M56" s="2"/>
+      <c r="N56" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="D59" s="1" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="E60" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="E61" t="s">
+        <v>99</v>
+      </c>
+      <c r="L61" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="L62" s="1" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="L63" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="19" spans="6:14" x14ac:dyDescent="0.2">
-      <c r="F19" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="20" spans="6:14" x14ac:dyDescent="0.2">
-      <c r="F20" t="s">
-        <v>102</v>
-      </c>
-      <c r="M20" s="1" t="s">
+    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="L64" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="65" spans="4:13" x14ac:dyDescent="0.2">
+      <c r="M65" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="66" spans="4:13" x14ac:dyDescent="0.2">
+      <c r="L66" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="67" spans="4:13" x14ac:dyDescent="0.2">
+      <c r="L67" s="1" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="68" spans="4:13" x14ac:dyDescent="0.2">
+      <c r="L68" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="21" spans="6:14" x14ac:dyDescent="0.2">
-      <c r="M21" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="22" spans="6:14" x14ac:dyDescent="0.2">
-      <c r="M22" t="s">
+    <row r="69" spans="4:13" x14ac:dyDescent="0.2">
+      <c r="L69" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="72" spans="4:13" x14ac:dyDescent="0.2">
+      <c r="D72" s="1" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="73" spans="4:13" x14ac:dyDescent="0.2">
+      <c r="E73" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="M73" s="3" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="74" spans="4:13" x14ac:dyDescent="0.2">
+      <c r="E74" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="75" spans="4:13" x14ac:dyDescent="0.2">
+      <c r="E75" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="76" spans="4:13" x14ac:dyDescent="0.2">
+      <c r="E76" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="77" spans="4:13" x14ac:dyDescent="0.2">
+      <c r="E77" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="78" spans="4:13" x14ac:dyDescent="0.2">
+      <c r="E78" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="D82" s="1" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="D83" s="1"/>
+      <c r="E83" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="D84" s="1"/>
+      <c r="F84" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="D85" s="1"/>
+      <c r="F85" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="F86" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="R86" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="R87" t="s">
+        <v>144</v>
+      </c>
+      <c r="S87" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="D89" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="E89" t="s">
+        <v>135</v>
+      </c>
+      <c r="F89" s="6"/>
+    </row>
+    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="E91" s="6"/>
+    </row>
+    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="C96" s="3" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="97" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C97" s="3"/>
+      <c r="D97" s="1" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="98" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="D98" s="1" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="101" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="D101" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="105" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C105" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="106" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="D106" s="1" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="107" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="D107" s="1" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="110" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="D110" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="120" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C120" s="3" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="122" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="F122" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="123" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="F123" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="124" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="F124" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="23" spans="6:14" x14ac:dyDescent="0.2">
-      <c r="N23" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="24" spans="6:14" x14ac:dyDescent="0.2">
-      <c r="M24" t="s">
+    <row r="125" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="G125" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="126" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="F126" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="25" spans="6:14" x14ac:dyDescent="0.2">
-      <c r="M25" s="1" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="26" spans="6:14" x14ac:dyDescent="0.2">
-      <c r="M26" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="27" spans="6:14" x14ac:dyDescent="0.2">
-      <c r="M27" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="29" spans="6:14" x14ac:dyDescent="0.2">
-      <c r="M29" s="1" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="30" spans="6:14" x14ac:dyDescent="0.2">
-      <c r="M30" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="31" spans="6:14" x14ac:dyDescent="0.2">
-      <c r="M31" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="32" spans="6:14" x14ac:dyDescent="0.2">
-      <c r="M32" t="s">
-        <v>108</v>
+    <row r="127" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="F127" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="128" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="F128" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="129" spans="6:7" x14ac:dyDescent="0.2">
+      <c r="G129" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="130" spans="6:7" x14ac:dyDescent="0.2">
+      <c r="F130" t="s">
+        <v>33</v>
       </c>
     </row>
   </sheetData>

--- a/doc/ue_compile.xlsx
+++ b/doc/ue_compile.xlsx
@@ -8,14 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\ue\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48DC5833-A315-4067-8AA1-28C7DEB0A9E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56A78CAE-79F1-45E1-9204-6E9F8FB11FF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="UnrealBuildTool" sheetId="3" r:id="rId2"/>
     <sheet name="UBT流程" sheetId="4" r:id="rId3"/>
+    <sheet name="Sheet2" sheetId="5" r:id="rId4"/>
+    <sheet name="设置参数 " sheetId="6" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="156">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="297" uniqueCount="209">
   <si>
     <t>工程</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -313,9 +315,6 @@
   </si>
   <si>
     <t>Parent = CreateEngineRulesAssembly(bUsePrecompiled, bSkipCompile);</t>
-  </si>
-  <si>
-    <t>EngineRulesAssembly = CreateEngineOrEnterpriseRulesAssembly(EngineScope, UnrealBuildTool.GetExtensionDirs(UnrealBuildTool.EngineDirectory), ProjectFileGenerator.EngineProjectFileNameBase, IncludedPlugins, UnrealBuildTool.IsEngineInstalled() || bUsePrecompiled, bSkipCompile, null);</t>
   </si>
   <si>
     <t>private static int Main(string[] ArgumentsArray)</t>
@@ -602,6 +601,203 @@
   </si>
   <si>
     <t>为什么不从引擎里面的obj????!!!!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SetupBinaryLinkEnvironment</t>
+  </si>
+  <si>
+    <t>开始创建makefile信息，各种依赖判断 ，生成.response等</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>先判断make存在不存在</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1存在：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2不存在：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>创建UEBuildTarget对象</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>using(Timeline.ScopeEvent("UEBuildTarget constructor"))</t>
+  </si>
+  <si>
+    <t>Target = new UEBuildTarget(Descriptor, new ReadOnlyTargetRules(RulesObject), RulesAssembly);</t>
+  </si>
+  <si>
+    <t>using(Timeline.ScopeEvent("UEBuildTarget.PreBuildSetup()"))</t>
+  </si>
+  <si>
+    <t>Target.PreBuildSetup();</t>
+  </si>
+  <si>
+    <t>// Setup the target's binaries.</t>
+  </si>
+  <si>
+    <t>SetupBinaries();</t>
+  </si>
+  <si>
+    <t>PreBuildSetup具体的实现</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>// Setup the target's plugins</t>
+  </si>
+  <si>
+    <t>SetupPlugins();</t>
+  </si>
+  <si>
+    <t>这个取决于</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>get</t>
+  </si>
+  <si>
+    <t>if(BuildEnvironmentOverride.HasValue)</t>
+  </si>
+  <si>
+    <t>return BuildEnvironmentOverride.Value;</t>
+  </si>
+  <si>
+    <t>if (Type == TargetType.Program &amp;&amp; ProjectFile != null &amp;&amp; File.IsUnderDirectory(ProjectFile.Directory))</t>
+  </si>
+  <si>
+    <t>return TargetBuildEnvironment.Unique;</t>
+  </si>
+  <si>
+    <t>else if (UnrealBuildTool.IsEngineInstalled() || LinkType != TargetLinkType.Monolithic)</t>
+  </si>
+  <si>
+    <t>return TargetBuildEnvironment.Shared;</t>
+  </si>
+  <si>
+    <t>set</t>
+  </si>
+  <si>
+    <t>BuildEnvironmentOverride = value;</t>
+  </si>
+  <si>
+    <t>当返回是Shared说明从引擎层面连接prebuild和obj（如果引擎层没有的话，就报错），否则写入到项目里面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>为啥prebuild和.obj不生成到引擎层，而是在项目里面？？？？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>也可以从编译的时候传入参数来解决：-SharedBuildEnvironment（这样子会强制生成到引擎目录里面而不是项目，默认是null不设置，-UniqueBuildEnvironment是生成到项目里面）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>public TargetBuildEnvironment BuildEnvironment</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TargetRules.cs</t>
+  </si>
+  <si>
+    <t>参数都在这个文件里</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在Debug模式下，加入上面的Shared会在引擎层编译，但是不会生成precompil文件，需要在加上参数：-Precompile</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>参数=-Target=MyTest001 WIN64 Debug -Project="F:\UEProject\MyTest001\MyTest001.uproject" -WaitMutex -FromMsBuild -SharedBuildEnvironment -Precompile</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>以上就可以实现和Lancher下载的引擎版本一样的功能了</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>引擎层：F:\UE\UE_4.26_Test\Engine\Intermediate\Build\Win64\UE4\Debug\Core</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>只需要提前编译号的 .obj和Module.Core.2_of_15.cpp.obj</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>项目仅仅需要这两个就可以了</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>可以修改到引擎的Intermediate目录</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在引擎Engine/Build下面方式空文件InstalledBuild.txt</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EngineRulesAssembly = CreateEngineOrEnterpriseRulesAssembly(EngineScope, UnrealBuildTool.GetExtensionDirs(UnrealBuildTool.EngineDirectory), ProjectFileGenerator.EngineProjectFileNameBase, IncludedPlugins, UnrealBuildTool.IsEngineInstalled() || bUsePrecompiled, bSkipCompile, null);</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>项目使用预编译(需要引擎提前全部编译好)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Editor模式：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EXE模式：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>依赖的是引擎层编译好的.obj和.precompiled</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>依赖的是引擎层编译好的.lib和.dll</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>项目编译时设置编译参数：-UsePrecompiled</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>引擎编译：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Editor模式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>非Editor模式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>直接编译，保留.lib,.dll,pdb，其他可以删除</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>编译保留.obj和.precompiled文件，其他可以删除</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>非Editor模式+precompiled</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>基本没用，项目编译的时候还是会重新编译的，因为这种模式不会生成.precompiled文件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>命令行增加参数：F:\UE\UE_4.26_Test\Engine\Build\BatchFiles\Build.bat UE4Game Win64 Debug -WaitMutex -FromMsBuild -Precompile</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1108,7 +1304,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B7:G40"/>
   <sheetViews>
-    <sheetView topLeftCell="A61" workbookViewId="0">
+    <sheetView topLeftCell="A55" workbookViewId="0">
       <selection activeCell="J30" sqref="J30"/>
     </sheetView>
   </sheetViews>
@@ -1248,15 +1444,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EBB797F9-26C3-47AB-9485-3EC52454575D}">
   <dimension ref="B2:R134"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C32" sqref="C32"/>
+    <sheetView topLeftCell="B109" workbookViewId="0">
+      <selection activeCell="T118" sqref="T118"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="2" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B2" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
@@ -1265,7 +1461,7 @@
     <row r="3" spans="2:18" ht="17.25" x14ac:dyDescent="0.3">
       <c r="B3" s="1"/>
       <c r="C3" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
@@ -1273,14 +1469,14 @@
     <row r="4" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B4" s="1"/>
       <c r="C4" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
     </row>
     <row r="6" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B6" s="3" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="7" spans="2:18" x14ac:dyDescent="0.2">
@@ -1558,7 +1754,7 @@
     </row>
     <row r="88" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C88" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="89" spans="3:6" x14ac:dyDescent="0.2">
@@ -1769,7 +1965,7 @@
     </row>
     <row r="131" spans="3:14" x14ac:dyDescent="0.2">
       <c r="D131" s="1" t="s">
-        <v>87</v>
+        <v>194</v>
       </c>
     </row>
     <row r="133" spans="3:14" x14ac:dyDescent="0.2">
@@ -1813,10 +2009,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6FED2DB9-968D-4468-9AE0-3CE8F1D4D2CC}">
-  <dimension ref="C7:S130"/>
+  <dimension ref="C7:S170"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B106" workbookViewId="0">
-      <selection activeCell="M120" sqref="M120"/>
+    <sheetView topLeftCell="B148" workbookViewId="0">
+      <selection activeCell="I175" sqref="I175"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1826,40 +2022,40 @@
   <sheetData>
     <row r="7" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C7" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="8" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C8" s="3"/>
       <c r="D8" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="10" spans="3:14" x14ac:dyDescent="0.2">
       <c r="D10" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="11" spans="3:14" x14ac:dyDescent="0.2">
       <c r="E11" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="K11" s="2"/>
       <c r="L11" s="2"/>
       <c r="M11" s="2"/>
       <c r="N11" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="12" spans="3:14" x14ac:dyDescent="0.2">
       <c r="E12" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="K12" s="2"/>
       <c r="L12" s="2"/>
@@ -1870,24 +2066,24 @@
     </row>
     <row r="13" spans="3:14" x14ac:dyDescent="0.2">
       <c r="E13" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="J13" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="K13" s="2"/>
       <c r="L13" s="2"/>
       <c r="M13" s="2"/>
       <c r="N13" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="14" spans="3:14" x14ac:dyDescent="0.2">
       <c r="E14" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J14" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="K14" s="2"/>
       <c r="L14" s="2"/>
@@ -1895,38 +2091,38 @@
     </row>
     <row r="17" spans="4:13" x14ac:dyDescent="0.2">
       <c r="D17" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="18" spans="4:13" x14ac:dyDescent="0.2">
       <c r="E18" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="19" spans="4:13" x14ac:dyDescent="0.2">
       <c r="E19" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="L19" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="20" spans="4:13" x14ac:dyDescent="0.2">
       <c r="E20" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="21" spans="4:13" x14ac:dyDescent="0.2">
       <c r="E21" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="L21" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="22" spans="4:13" x14ac:dyDescent="0.2">
       <c r="L22" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="23" spans="4:13" x14ac:dyDescent="0.2">
@@ -1936,7 +2132,7 @@
     </row>
     <row r="24" spans="4:13" x14ac:dyDescent="0.2">
       <c r="M24" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="25" spans="4:13" x14ac:dyDescent="0.2">
@@ -1946,53 +2142,53 @@
     </row>
     <row r="26" spans="4:13" x14ac:dyDescent="0.2">
       <c r="L26" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="27" spans="4:13" x14ac:dyDescent="0.2">
       <c r="L27" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="28" spans="4:13" x14ac:dyDescent="0.2">
       <c r="L28" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="30" spans="4:13" x14ac:dyDescent="0.2">
       <c r="L30" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="31" spans="4:13" x14ac:dyDescent="0.2">
       <c r="L31" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="32" spans="4:13" x14ac:dyDescent="0.2">
       <c r="L32" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="33" spans="3:12" x14ac:dyDescent="0.2">
       <c r="L33" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="37" spans="3:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C37" s="3" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="38" spans="3:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D38" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="39" spans="3:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="40" spans="3:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D40" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="41" spans="3:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2003,45 +2199,48 @@
     <row r="46" spans="3:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="50" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C50" s="3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="51" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C51" s="3"/>
       <c r="D51" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="52" spans="3:14" x14ac:dyDescent="0.2">
       <c r="D52" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
+      </c>
+      <c r="M52" s="1" t="s">
+        <v>192</v>
       </c>
     </row>
     <row r="54" spans="3:14" x14ac:dyDescent="0.2">
       <c r="D54" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="55" spans="3:14" x14ac:dyDescent="0.2">
       <c r="E55" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="J55" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="K55" s="2"/>
       <c r="L55" s="2"/>
       <c r="M55" s="2"/>
       <c r="N55" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="56" spans="3:14" x14ac:dyDescent="0.2">
       <c r="E56" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J56" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="K56" s="2"/>
       <c r="L56" s="2"/>
@@ -2052,30 +2251,30 @@
     </row>
     <row r="59" spans="3:14" x14ac:dyDescent="0.2">
       <c r="D59" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="60" spans="3:14" x14ac:dyDescent="0.2">
       <c r="E60" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="61" spans="3:14" x14ac:dyDescent="0.2">
       <c r="E61" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="L61" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="62" spans="3:14" x14ac:dyDescent="0.2">
       <c r="L62" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="63" spans="3:14" x14ac:dyDescent="0.2">
       <c r="L63" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="64" spans="3:14" x14ac:dyDescent="0.2">
@@ -2085,7 +2284,7 @@
     </row>
     <row r="65" spans="4:13" x14ac:dyDescent="0.2">
       <c r="M65" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="66" spans="4:13" x14ac:dyDescent="0.2">
@@ -2095,102 +2294,102 @@
     </row>
     <row r="67" spans="4:13" x14ac:dyDescent="0.2">
       <c r="L67" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="68" spans="4:13" x14ac:dyDescent="0.2">
       <c r="L68" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="69" spans="4:13" x14ac:dyDescent="0.2">
       <c r="L69" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="72" spans="4:13" x14ac:dyDescent="0.2">
       <c r="D72" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="73" spans="4:13" x14ac:dyDescent="0.2">
       <c r="E73" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="M73" s="3" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="74" spans="4:13" x14ac:dyDescent="0.2">
       <c r="E74" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="75" spans="4:13" x14ac:dyDescent="0.2">
       <c r="E75" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="76" spans="4:13" x14ac:dyDescent="0.2">
       <c r="E76" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="77" spans="4:13" x14ac:dyDescent="0.2">
       <c r="E77" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="78" spans="4:13" x14ac:dyDescent="0.2">
       <c r="E78" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="82" spans="3:19" x14ac:dyDescent="0.2">
       <c r="D82" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="83" spans="3:19" x14ac:dyDescent="0.2">
       <c r="D83" s="1"/>
       <c r="E83" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="84" spans="3:19" x14ac:dyDescent="0.2">
       <c r="D84" s="1"/>
       <c r="F84" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="85" spans="3:19" x14ac:dyDescent="0.2">
       <c r="D85" s="1"/>
       <c r="F85" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="86" spans="3:19" x14ac:dyDescent="0.2">
       <c r="F86" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="R86" t="s">
         <v>141</v>
-      </c>
-      <c r="R86" t="s">
-        <v>142</v>
       </c>
     </row>
     <row r="87" spans="3:19" x14ac:dyDescent="0.2">
       <c r="R87" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="S87" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="89" spans="3:19" x14ac:dyDescent="0.2">
       <c r="D89" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="E89" t="s">
         <v>134</v>
-      </c>
-      <c r="E89" t="s">
-        <v>135</v>
       </c>
       <c r="F89" s="6"/>
     </row>
@@ -2199,23 +2398,23 @@
     </row>
     <row r="96" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C96" s="3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="97" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C97" s="3"/>
       <c r="D97" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="98" spans="3:4" x14ac:dyDescent="0.2">
       <c r="D98" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="101" spans="3:4" x14ac:dyDescent="0.2">
       <c r="D101" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="105" spans="3:4" x14ac:dyDescent="0.2">
@@ -2225,32 +2424,32 @@
     </row>
     <row r="106" spans="3:4" x14ac:dyDescent="0.2">
       <c r="D106" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="107" spans="3:4" x14ac:dyDescent="0.2">
       <c r="D107" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="110" spans="3:4" x14ac:dyDescent="0.2">
       <c r="D110" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="120" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C120" s="3" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="122" spans="3:7" x14ac:dyDescent="0.2">
       <c r="F122" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="123" spans="3:7" x14ac:dyDescent="0.2">
       <c r="F123" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="124" spans="3:7" x14ac:dyDescent="0.2">
@@ -2260,7 +2459,7 @@
     </row>
     <row r="125" spans="3:7" x14ac:dyDescent="0.2">
       <c r="G125" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="126" spans="3:7" x14ac:dyDescent="0.2">
@@ -2270,7 +2469,7 @@
     </row>
     <row r="127" spans="3:7" x14ac:dyDescent="0.2">
       <c r="F127" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="128" spans="3:7" x14ac:dyDescent="0.2">
@@ -2278,14 +2477,434 @@
         <v>30</v>
       </c>
     </row>
-    <row r="129" spans="6:7" x14ac:dyDescent="0.2">
+    <row r="129" spans="3:9" x14ac:dyDescent="0.2">
       <c r="G129" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="130" spans="6:7" x14ac:dyDescent="0.2">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="130" spans="3:9" x14ac:dyDescent="0.2">
       <c r="F130" t="s">
         <v>33</v>
+      </c>
+    </row>
+    <row r="132" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C132" s="3" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="133" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="D133" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="134" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="E134" s="1" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="135" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="E135" s="1" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="136" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="E136" s="1" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="137" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="E137" s="1"/>
+    </row>
+    <row r="138" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="F138" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="139" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="F139" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="140" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="G140" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="141" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="G141" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="142" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="H142" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="143" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="H143" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="144" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="I144" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="145" spans="7:9" x14ac:dyDescent="0.2">
+      <c r="H145" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="146" spans="7:9" x14ac:dyDescent="0.2">
+      <c r="H146" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="147" spans="7:9" x14ac:dyDescent="0.2">
+      <c r="H147" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="148" spans="7:9" x14ac:dyDescent="0.2">
+      <c r="I148" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="149" spans="7:9" x14ac:dyDescent="0.2">
+      <c r="H149" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="150" spans="7:9" x14ac:dyDescent="0.2">
+      <c r="H150" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="151" spans="7:9" x14ac:dyDescent="0.2">
+      <c r="H151" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="152" spans="7:9" x14ac:dyDescent="0.2">
+      <c r="I152" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="153" spans="7:9" x14ac:dyDescent="0.2">
+      <c r="H153" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="154" spans="7:9" x14ac:dyDescent="0.2">
+      <c r="H154" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="155" spans="7:9" x14ac:dyDescent="0.2">
+      <c r="H155" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="156" spans="7:9" x14ac:dyDescent="0.2">
+      <c r="I156" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="157" spans="7:9" x14ac:dyDescent="0.2">
+      <c r="H157" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="158" spans="7:9" x14ac:dyDescent="0.2">
+      <c r="G158" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="159" spans="7:9" x14ac:dyDescent="0.2">
+      <c r="G159" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="160" spans="7:9" x14ac:dyDescent="0.2">
+      <c r="G160" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="161" spans="4:8" x14ac:dyDescent="0.2">
+      <c r="H161" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="162" spans="4:8" x14ac:dyDescent="0.2">
+      <c r="G162" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="163" spans="4:8" x14ac:dyDescent="0.2">
+      <c r="F163" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="166" spans="4:8" x14ac:dyDescent="0.2">
+      <c r="D166" s="1" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="167" spans="4:8" x14ac:dyDescent="0.2">
+      <c r="D167" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="168" spans="4:8" x14ac:dyDescent="0.2">
+      <c r="E168" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="169" spans="4:8" x14ac:dyDescent="0.2">
+      <c r="F169" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="170" spans="4:8" x14ac:dyDescent="0.2">
+      <c r="F170" t="s">
+        <v>191</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BED76CBF-4E1F-4A21-97DD-4F9685B90CD3}">
+  <dimension ref="C6:M47"/>
+  <sheetViews>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="K50" sqref="K50"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="6" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D6" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="7" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D7" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="9" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="E9" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="11" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="F11" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="22" spans="6:11" x14ac:dyDescent="0.2">
+      <c r="F22" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="23" spans="6:11" x14ac:dyDescent="0.2">
+      <c r="G23">
+        <v>1</v>
+      </c>
+      <c r="H23" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="24" spans="6:11" x14ac:dyDescent="0.2">
+      <c r="I24" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="25" spans="6:11" x14ac:dyDescent="0.2">
+      <c r="J25" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="26" spans="6:11" x14ac:dyDescent="0.2">
+      <c r="J26" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="27" spans="6:11" x14ac:dyDescent="0.2">
+      <c r="J27" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="28" spans="6:11" x14ac:dyDescent="0.2">
+      <c r="K28" s="1" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="29" spans="6:11" x14ac:dyDescent="0.2">
+      <c r="J29" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="30" spans="6:11" x14ac:dyDescent="0.2">
+      <c r="J30" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="31" spans="6:11" x14ac:dyDescent="0.2">
+      <c r="J31" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="32" spans="6:11" x14ac:dyDescent="0.2">
+      <c r="K32" s="1" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="33" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="J33" t="s">
+        <v>33</v>
+      </c>
+      <c r="M33" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="34" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M34" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="35" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M35" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="36" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M36" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="37" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M37" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="38" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="D38" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="46" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="C46" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="47" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="C47" t="s">
+        <v>184</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{88CE6445-038C-4611-82D4-D8201A50E153}">
+  <dimension ref="A6:D26"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K14" sqref="K14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="2" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" s="1">
+        <v>1</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C7" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C8" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C10" s="1" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D11" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C12" s="1" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D13" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A19" s="1">
+        <v>2</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C20" s="1" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D21" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C22" s="1" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D23" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C24" s="1" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D25" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D26" t="s">
+        <v>205</v>
       </c>
     </row>
   </sheetData>

--- a/doc/ue_compile.xlsx
+++ b/doc/ue_compile.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\ue\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56A78CAE-79F1-45E1-9204-6E9F8FB11FF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{259B9DBB-3FFC-49BD-82D9-C1D4915E7DDC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -18,6 +18,7 @@
     <sheet name="UBT流程" sheetId="4" r:id="rId3"/>
     <sheet name="Sheet2" sheetId="5" r:id="rId4"/>
     <sheet name="设置参数 " sheetId="6" r:id="rId5"/>
+    <sheet name="流程" sheetId="7" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="297" uniqueCount="209">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="335" uniqueCount="240">
   <si>
     <t>工程</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -799,6 +800,122 @@
   <si>
     <t>命令行增加参数：F:\UE\UE_4.26_Test\Engine\Build\BatchFiles\Build.bat UE4Game Win64 Debug -WaitMutex -FromMsBuild -Precompile</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>启动函数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>创建BuildMode类型对象</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ToolMode Mode = (ToolMode)Activator.CreateInstance(ModeType);</t>
+  </si>
+  <si>
+    <t>执行</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>进行DeleteJunk检查处理操作</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>就是检测Engine\Build\JunkManifest.txt文件内容，有的就删除</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>执行Build操作，传入的Options一般都是None</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Build(TargetMakefiles.ToArray(), TargetDescriptors, BuildConfiguration, WorkingSet, Options, WriteOutdatedActionsFile);</t>
+  </si>
+  <si>
+    <t>最后调用编译处理函数，进行编译连接等处理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>挨个调用，目的就是生成要编译的文件信息，编译参数，response文件等</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>关于CreateMakeFile函数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>存在</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>加载</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1：先检查是否已经有对应的make文件了（这个make其实就是目标目录下面的Makefile.bin文件）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不存在</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>各种版本字段等检测，不匹配就重新新建</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>（分析的时候一般就按不存在分析）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>收集需要提前编译的信息，然后执行（一般都没有）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FileReference[] PreBuildScripts = Target.CreatePreBuildScripts();</t>
+  </si>
+  <si>
+    <t>Utils.ExecuteCustomBuildSteps(PreBuildScripts);</t>
+  </si>
+  <si>
+    <t>编译UEBuildTarget,返回TargetMakefile Makefile对象</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>创建规则集合RulesAssembly，解析工程下所有的.cs文件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>通过规则集合RulesAssembly，创建TargetRules（这个TargetRules里有大量的设置开关）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>通过1和2的对象，创建UEBuildTarget</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>执行UEBuildTarget::PreBuildSetup()处理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>很重要，收集所有Modules</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SetupBinaries()</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AddModuleToBinary(Module);</t>
+  </si>
+  <si>
+    <t>foreach (UEBuildPlugin Plugin in BuildPlugins)</t>
+  </si>
+  <si>
+    <t>foreach(UEBuildModuleCPP Module in Plugin.Modules)</t>
+  </si>
+  <si>
+    <t>AddExtraModules();</t>
   </si>
 </sst>
 </file>
@@ -1304,7 +1421,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B7:G40"/>
   <sheetViews>
-    <sheetView topLeftCell="A55" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J30" sqref="J30"/>
     </sheetView>
   </sheetViews>
@@ -1444,8 +1561,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EBB797F9-26C3-47AB-9485-3EC52454575D}">
   <dimension ref="B2:R134"/>
   <sheetViews>
-    <sheetView topLeftCell="B109" workbookViewId="0">
-      <selection activeCell="T118" sqref="T118"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2011,7 +2128,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6FED2DB9-968D-4468-9AE0-3CE8F1D4D2CC}">
   <dimension ref="C7:S170"/>
   <sheetViews>
-    <sheetView topLeftCell="B148" workbookViewId="0">
+    <sheetView topLeftCell="B28" workbookViewId="0">
       <selection activeCell="I175" sqref="I175"/>
     </sheetView>
   </sheetViews>
@@ -2680,7 +2797,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BED76CBF-4E1F-4A21-97DD-4F9685B90CD3}">
   <dimension ref="C6:M47"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="K50" sqref="K50"/>
     </sheetView>
   </sheetViews>
@@ -2817,8 +2934,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{88CE6445-038C-4611-82D4-D8201A50E153}">
   <dimension ref="A6:D26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K14" sqref="K14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G33" sqref="G33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2911,4 +3028,236 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8481FB5-C7DD-4BBD-8F43-92A7BB624CA2}">
+  <dimension ref="C6:U63"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="K36" sqref="K36"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="6" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C6" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="7" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C7" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="9" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="D9" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="10" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="D10" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="11" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="D11" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="12" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="D12" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="14" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="E14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="E15">
+        <v>2</v>
+      </c>
+      <c r="F15" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="16" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="G16" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="17" spans="5:14" x14ac:dyDescent="0.2">
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="19" spans="5:14" x14ac:dyDescent="0.2">
+      <c r="G19">
+        <v>1</v>
+      </c>
+      <c r="H19" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="20" spans="5:14" x14ac:dyDescent="0.2">
+      <c r="H20" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="21" spans="5:14" x14ac:dyDescent="0.2">
+      <c r="I21" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="23" spans="5:14" x14ac:dyDescent="0.2">
+      <c r="I23" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="24" spans="5:14" x14ac:dyDescent="0.2">
+      <c r="J24" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="25" spans="5:14" x14ac:dyDescent="0.2">
+      <c r="K25" t="s">
+        <v>220</v>
+      </c>
+      <c r="L25" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="26" spans="5:14" x14ac:dyDescent="0.2">
+      <c r="L26" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="27" spans="5:14" x14ac:dyDescent="0.2">
+      <c r="L27" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="28" spans="5:14" x14ac:dyDescent="0.2">
+      <c r="K28" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="29" spans="5:14" x14ac:dyDescent="0.2">
+      <c r="L29" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="30" spans="5:14" x14ac:dyDescent="0.2">
+      <c r="L30" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="31" spans="5:14" x14ac:dyDescent="0.2">
+      <c r="M31">
+        <v>1</v>
+      </c>
+      <c r="N31" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="32" spans="5:14" x14ac:dyDescent="0.2">
+      <c r="M32">
+        <v>2</v>
+      </c>
+      <c r="N32" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="33" spans="12:21" x14ac:dyDescent="0.2">
+      <c r="M33">
+        <v>3</v>
+      </c>
+      <c r="N33" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="34" spans="12:21" x14ac:dyDescent="0.2">
+      <c r="M34">
+        <v>4</v>
+      </c>
+      <c r="N34" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="U34" s="1" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="35" spans="12:21" x14ac:dyDescent="0.2">
+      <c r="O35" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="36" spans="12:21" x14ac:dyDescent="0.2">
+      <c r="O36" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="37" spans="12:21" x14ac:dyDescent="0.2">
+      <c r="O37" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="38" spans="12:21" x14ac:dyDescent="0.2">
+      <c r="P38" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="39" spans="12:21" x14ac:dyDescent="0.2">
+      <c r="Q39" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="40" spans="12:21" x14ac:dyDescent="0.2">
+      <c r="O40" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="43" spans="12:21" x14ac:dyDescent="0.2">
+      <c r="L43" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="44" spans="12:21" x14ac:dyDescent="0.2">
+      <c r="L44" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="45" spans="12:21" x14ac:dyDescent="0.2">
+      <c r="L45" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="46" spans="12:21" x14ac:dyDescent="0.2">
+      <c r="L46" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="62" spans="7:9" x14ac:dyDescent="0.2">
+      <c r="G62">
+        <v>2</v>
+      </c>
+      <c r="H62" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="63" spans="7:9" x14ac:dyDescent="0.2">
+      <c r="I63" t="s">
+        <v>216</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/doc/ue_compile.xlsx
+++ b/doc/ue_compile.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\ue\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{259B9DBB-3FFC-49BD-82D9-C1D4915E7DDC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B71C9D64-0699-4A63-B7AB-5C4AF775A6E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="335" uniqueCount="240">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="336" uniqueCount="241">
   <si>
     <t>工程</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -868,16 +868,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>收集需要提前编译的信息，然后执行（一般都没有）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>FileReference[] PreBuildScripts = Target.CreatePreBuildScripts();</t>
-  </si>
-  <si>
-    <t>Utils.ExecuteCustomBuildSteps(PreBuildScripts);</t>
-  </si>
-  <si>
     <t>编译UEBuildTarget,返回TargetMakefile Makefile对象</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -916,6 +906,22 @@
   </si>
   <si>
     <t>AddExtraModules();</t>
+  </si>
+  <si>
+    <t>准备引擎Game/Plugins目录下的模块(precompiled模式下也包含了其生成.precompiled文件的路径)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主工程的生成信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>这一步其实就生成Intermediate目录下大量的.response和对应的.cpp文件了(.response就是编译.cpp的参数等信息)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>保存生成的makefile.bin</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1562,7 +1568,7 @@
   <dimension ref="B2:R134"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="G22" sqref="G22"/>
+      <selection activeCell="L28" sqref="L28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2128,8 +2134,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6FED2DB9-968D-4468-9AE0-3CE8F1D4D2CC}">
   <dimension ref="C7:S170"/>
   <sheetViews>
-    <sheetView topLeftCell="B28" workbookViewId="0">
-      <selection activeCell="I175" sqref="I175"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="K22" sqref="K22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3032,10 +3038,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8481FB5-C7DD-4BBD-8F43-92A7BB624CA2}">
-  <dimension ref="C6:U63"/>
+  <dimension ref="C6:U61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="K36" sqref="K36"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="N10" sqref="N10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3162,7 +3168,7 @@
         <v>1</v>
       </c>
       <c r="N31" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
     </row>
     <row r="32" spans="5:14" x14ac:dyDescent="0.2">
@@ -3170,7 +3176,7 @@
         <v>2</v>
       </c>
       <c r="N32" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
     </row>
     <row r="33" spans="12:21" x14ac:dyDescent="0.2">
@@ -3178,7 +3184,7 @@
         <v>3</v>
       </c>
       <c r="N33" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
     </row>
     <row r="34" spans="12:21" x14ac:dyDescent="0.2">
@@ -3186,72 +3192,77 @@
         <v>4</v>
       </c>
       <c r="N34" s="1" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="U34" s="1" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
     </row>
     <row r="35" spans="12:21" x14ac:dyDescent="0.2">
       <c r="O35" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
     </row>
     <row r="36" spans="12:21" x14ac:dyDescent="0.2">
-      <c r="O36" t="s">
-        <v>169</v>
+      <c r="O36" s="1" t="s">
+        <v>237</v>
       </c>
     </row>
     <row r="37" spans="12:21" x14ac:dyDescent="0.2">
       <c r="O37" t="s">
-        <v>237</v>
+        <v>169</v>
       </c>
     </row>
     <row r="38" spans="12:21" x14ac:dyDescent="0.2">
-      <c r="P38" t="s">
+      <c r="O38" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="39" spans="12:21" x14ac:dyDescent="0.2">
+      <c r="P39" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="40" spans="12:21" x14ac:dyDescent="0.2">
+      <c r="Q40" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="41" spans="12:21" x14ac:dyDescent="0.2">
+      <c r="O41" s="1" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="39" spans="12:21" x14ac:dyDescent="0.2">
-      <c r="Q39" t="s">
+    <row r="42" spans="12:21" x14ac:dyDescent="0.2">
+      <c r="O42" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="40" spans="12:21" x14ac:dyDescent="0.2">
-      <c r="O40" t="s">
+    <row r="43" spans="12:21" x14ac:dyDescent="0.2">
+      <c r="L43" s="1" t="s">
         <v>239</v>
-      </c>
-    </row>
-    <row r="43" spans="12:21" x14ac:dyDescent="0.2">
-      <c r="L43" t="s">
-        <v>226</v>
       </c>
     </row>
     <row r="44" spans="12:21" x14ac:dyDescent="0.2">
       <c r="L44" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="45" spans="12:21" x14ac:dyDescent="0.2">
       <c r="L45" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="46" spans="12:21" x14ac:dyDescent="0.2">
-      <c r="L46" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="62" spans="7:9" x14ac:dyDescent="0.2">
-      <c r="G62">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="60" spans="7:9" x14ac:dyDescent="0.2">
+      <c r="G60">
         <v>2</v>
       </c>
-      <c r="H62" t="s">
+      <c r="H60" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="63" spans="7:9" x14ac:dyDescent="0.2">
-      <c r="I63" t="s">
+    <row r="61" spans="7:9" x14ac:dyDescent="0.2">
+      <c r="I61" t="s">
         <v>216</v>
       </c>
     </row>

--- a/doc/ue_compile.xlsx
+++ b/doc/ue_compile.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\ue\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B71C9D64-0699-4A63-B7AB-5C4AF775A6E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EEE5AF4E-38C4-4FCB-89E5-A794253764BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="336" uniqueCount="241">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="342" uniqueCount="247">
   <si>
     <t>工程</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -401,10 +401,6 @@
   </si>
   <si>
     <t>以VC举例：</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>link.exe 创建.lib 与.dll 文件</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -923,12 +919,60 @@
     <t>保存生成的makefile.bin</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>cl.exe</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lib.exe</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>link.exe</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>lib.exe</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>生成</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>.lib</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>link.exe 创建.dll 文件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C:\Program Files (x86)\Microsoft Visual Studio\2019\Professional\VC\Tools\MSVC\14.29.30133\bin\HostX64\x64\link.exe" @"D:\UE4Simple\MyProject2\Intermediate\Build\Win64\UE4Editor\Debug\MyProject2\UE4Editor-MyProject2-Win64-Debug.dll.response</t>
+  </si>
+  <si>
+    <t>C:\Program Files (x86)\Microsoft Visual Studio\2019\Professional\VC\Tools\MSVC\14.29.30133\bin\HostX64\x64\lib.exe @"D:\UE4Simple\MyProject2\Intermediate\Build\Win64\UE4Editor\Debug\MyProject2\UE4Editor-MyProject2-Win64-Debug.lib.response"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -988,6 +1032,13 @@
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="2">
@@ -1565,15 +1616,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EBB797F9-26C3-47AB-9485-3EC52454575D}">
-  <dimension ref="B2:R134"/>
+  <dimension ref="B2:R135"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="L28" sqref="L28"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="P12" sqref="P12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="2" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B2" s="1" t="s">
         <v>110</v>
       </c>
@@ -1581,535 +1632,533 @@
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
     </row>
-    <row r="3" spans="2:18" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:7" ht="17.25" x14ac:dyDescent="0.3">
       <c r="B3" s="1"/>
       <c r="C3" s="4" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
     </row>
-    <row r="4" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:7" ht="15" x14ac:dyDescent="0.2">
       <c r="B4" s="1"/>
-      <c r="C4" s="1" t="s">
-        <v>111</v>
+      <c r="C4" s="4" t="s">
+        <v>243</v>
       </c>
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
-    </row>
-    <row r="6" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B6" s="3" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="7" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="C7" t="s">
+      <c r="G4" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="5" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B5" s="1"/>
+      <c r="C5" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="G5" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="11" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B11" s="3" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="12" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="C12" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="9" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="E9" t="s">
+    <row r="14" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="E14" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="11" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="C11" t="s">
+    <row r="16" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="C16" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="12" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="E12" t="s">
+    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="E17" t="s">
         <v>26</v>
       </c>
-      <c r="R12" t="s">
+      <c r="R17" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="15" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="C15" t="s">
+    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="C20" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="17" spans="3:11" x14ac:dyDescent="0.2">
-      <c r="E17" t="s">
+    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="E22" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="18" spans="3:11" x14ac:dyDescent="0.2">
-      <c r="E18" t="s">
+    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="E23" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="19" spans="3:11" x14ac:dyDescent="0.2">
-      <c r="F19" t="s">
+    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="F24" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="20" spans="3:11" x14ac:dyDescent="0.2">
-      <c r="F20" t="s">
+    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="F25" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="21" spans="3:11" x14ac:dyDescent="0.2">
-      <c r="E21" t="s">
+    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="E26" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="24" spans="3:11" x14ac:dyDescent="0.2">
-      <c r="C24" t="s">
+    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="C29" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="25" spans="3:11" x14ac:dyDescent="0.2">
-      <c r="K25" s="3" t="s">
+    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="K30" s="3" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="26" spans="3:11" x14ac:dyDescent="0.2">
-      <c r="E26" t="s">
+    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="E31" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="27" spans="3:11" x14ac:dyDescent="0.2">
-      <c r="E27" t="s">
+    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="E32" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="28" spans="3:11" x14ac:dyDescent="0.2">
-      <c r="E28" t="s">
+    <row r="33" spans="3:10" x14ac:dyDescent="0.2">
+      <c r="E33" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="29" spans="3:11" x14ac:dyDescent="0.2">
-      <c r="E29" t="s">
+    <row r="34" spans="3:10" x14ac:dyDescent="0.2">
+      <c r="E34" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="30" spans="3:11" x14ac:dyDescent="0.2">
-      <c r="F30" t="s">
+    <row r="35" spans="3:10" x14ac:dyDescent="0.2">
+      <c r="F35" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="31" spans="3:11" x14ac:dyDescent="0.2">
-      <c r="F31" t="s">
+    <row r="36" spans="3:10" x14ac:dyDescent="0.2">
+      <c r="F36" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="32" spans="3:11" x14ac:dyDescent="0.2">
-      <c r="G32" t="s">
+    <row r="37" spans="3:10" x14ac:dyDescent="0.2">
+      <c r="G37" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="33" spans="3:11" x14ac:dyDescent="0.2">
-      <c r="G33" t="s">
+    <row r="38" spans="3:10" x14ac:dyDescent="0.2">
+      <c r="G38" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="34" spans="3:11" x14ac:dyDescent="0.2">
-      <c r="F34" t="s">
+    <row r="39" spans="3:10" x14ac:dyDescent="0.2">
+      <c r="F39" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="35" spans="3:11" x14ac:dyDescent="0.2">
-      <c r="E35" t="s">
+    <row r="40" spans="3:10" x14ac:dyDescent="0.2">
+      <c r="E40" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="43" spans="3:11" x14ac:dyDescent="0.2">
-      <c r="C43" t="s">
+    <row r="44" spans="3:10" x14ac:dyDescent="0.2">
+      <c r="C44" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="45" spans="3:11" x14ac:dyDescent="0.2">
-      <c r="G45" t="s">
+    <row r="46" spans="3:10" x14ac:dyDescent="0.2">
+      <c r="G46" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="46" spans="3:11" x14ac:dyDescent="0.2">
-      <c r="J46" t="s">
+    <row r="47" spans="3:10" x14ac:dyDescent="0.2">
+      <c r="J47" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="47" spans="3:11" x14ac:dyDescent="0.2">
-      <c r="J47" t="s">
+    <row r="48" spans="3:10" x14ac:dyDescent="0.2">
+      <c r="J48" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="48" spans="3:11" x14ac:dyDescent="0.2">
-      <c r="K48" t="s">
+    <row r="49" spans="11:14" x14ac:dyDescent="0.2">
+      <c r="K49" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="49" spans="10:14" x14ac:dyDescent="0.2">
-      <c r="K49" t="s">
+    <row r="50" spans="11:14" x14ac:dyDescent="0.2">
+      <c r="K50" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="50" spans="10:14" x14ac:dyDescent="0.2">
-      <c r="L50" t="s">
+    <row r="51" spans="11:14" x14ac:dyDescent="0.2">
+      <c r="L51" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="51" spans="10:14" x14ac:dyDescent="0.2">
-      <c r="L51" t="s">
+    <row r="52" spans="11:14" x14ac:dyDescent="0.2">
+      <c r="L52" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="52" spans="10:14" x14ac:dyDescent="0.2">
-      <c r="M52" t="s">
+    <row r="53" spans="11:14" x14ac:dyDescent="0.2">
+      <c r="M53" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="53" spans="10:14" x14ac:dyDescent="0.2">
-      <c r="M53" t="s">
+    <row r="54" spans="11:14" x14ac:dyDescent="0.2">
+      <c r="M54" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="54" spans="10:14" x14ac:dyDescent="0.2">
-      <c r="M54" t="s">
+    <row r="55" spans="11:14" x14ac:dyDescent="0.2">
+      <c r="M55" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="55" spans="10:14" x14ac:dyDescent="0.2">
-      <c r="N55" t="s">
+    <row r="56" spans="11:14" x14ac:dyDescent="0.2">
+      <c r="N56" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="57" spans="10:14" x14ac:dyDescent="0.2">
-      <c r="N57" t="s">
+    <row r="58" spans="11:14" x14ac:dyDescent="0.2">
+      <c r="N58" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="59" spans="10:14" x14ac:dyDescent="0.2">
-      <c r="N59" t="s">
+    <row r="60" spans="11:14" x14ac:dyDescent="0.2">
+      <c r="N60" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="60" spans="10:14" x14ac:dyDescent="0.2">
-      <c r="N60" t="s">
+    <row r="61" spans="11:14" x14ac:dyDescent="0.2">
+      <c r="N61" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="61" spans="10:14" x14ac:dyDescent="0.2">
-      <c r="M61" t="s">
+    <row r="62" spans="11:14" x14ac:dyDescent="0.2">
+      <c r="M62" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="62" spans="10:14" x14ac:dyDescent="0.2">
-      <c r="L62" t="s">
+    <row r="63" spans="11:14" x14ac:dyDescent="0.2">
+      <c r="L63" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="63" spans="10:14" x14ac:dyDescent="0.2">
-      <c r="K63" t="s">
+    <row r="64" spans="11:14" x14ac:dyDescent="0.2">
+      <c r="K64" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="64" spans="10:14" x14ac:dyDescent="0.2">
-      <c r="J64" t="s">
+    <row r="65" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="J65" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="66" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B66" s="1" t="s">
+    <row r="67" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B67" s="1" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="67" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="D67" t="s">
+    <row r="68" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="D68" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="68" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="F68" t="s">
+    <row r="69" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="F69" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="69" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="G69" t="s">
+    <row r="70" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="G70" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="70" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="G70" t="s">
+    <row r="71" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="G71" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="71" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="G71" t="s">
+    <row r="72" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="G72" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="72" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="H72" t="s">
+    <row r="73" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="H73" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="73" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="G73" t="s">
+    <row r="74" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="G74" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="76" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="F76" t="s">
+    <row r="77" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="F77" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="77" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="F77" t="s">
+    <row r="78" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="F78" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="79" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B79" s="1" t="s">
+    <row r="80" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B80" s="1" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="83" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="D83" s="1" t="s">
+    <row r="84" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="D84" s="1" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="84" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="D84" s="2" t="s">
+    <row r="85" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="D85" s="2" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="88" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C88" t="s">
+    <row r="89" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C89" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="89" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="E89" t="s">
+    <row r="90" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="E90" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="90" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C90" t="s">
+    <row r="91" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C91" t="s">
         <v>25</v>
-      </c>
-    </row>
-    <row r="91" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="E91" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="92" spans="3:6" x14ac:dyDescent="0.2">
       <c r="E92" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="93" spans="3:6" x14ac:dyDescent="0.2">
       <c r="E93" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="94" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="E94" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="94" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="F94" t="s">
+    <row r="95" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="F95" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="95" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="E95" t="s">
+    <row r="96" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="E96" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="96" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C96" t="s">
+    <row r="97" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C97" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="97" spans="5:9" x14ac:dyDescent="0.2">
-      <c r="E97" t="s">
+    <row r="98" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="E98" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="98" spans="5:9" x14ac:dyDescent="0.2">
-      <c r="E98" t="s">
+    <row r="99" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="E99" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="99" spans="5:9" x14ac:dyDescent="0.2">
-      <c r="F99" s="1" t="s">
+    <row r="100" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="F100" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="G99" s="1"/>
-    </row>
-    <row r="100" spans="5:9" x14ac:dyDescent="0.2">
-      <c r="F100" t="s">
+      <c r="G100" s="1"/>
+    </row>
+    <row r="101" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="F101" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="101" spans="5:9" x14ac:dyDescent="0.2">
-      <c r="F101" t="s">
+    <row r="102" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="F102" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="102" spans="5:9" x14ac:dyDescent="0.2">
-      <c r="F102" t="s">
+    <row r="103" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="F103" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="103" spans="5:9" x14ac:dyDescent="0.2">
-      <c r="G103" t="s">
+    <row r="104" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="G104" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="104" spans="5:9" x14ac:dyDescent="0.2">
-      <c r="G104" t="s">
+    <row r="105" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="G105" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="105" spans="5:9" x14ac:dyDescent="0.2">
-      <c r="H105" t="s">
+    <row r="106" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="H106" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="106" spans="5:9" x14ac:dyDescent="0.2">
-      <c r="H106" t="s">
+    <row r="107" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="H107" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="107" spans="5:9" x14ac:dyDescent="0.2">
-      <c r="H107" t="s">
+    <row r="108" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="H108" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="108" spans="5:9" x14ac:dyDescent="0.2">
-      <c r="I108" t="s">
+    <row r="109" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="I109" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="109" spans="5:9" x14ac:dyDescent="0.2">
-      <c r="H109" t="s">
+    <row r="110" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="H110" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="110" spans="5:9" x14ac:dyDescent="0.2">
-      <c r="G110" t="s">
+    <row r="111" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="G111" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="111" spans="5:9" x14ac:dyDescent="0.2">
-      <c r="F111" t="s">
+    <row r="112" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="F112" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="112" spans="5:9" x14ac:dyDescent="0.2">
-      <c r="E112" t="s">
+    <row r="113" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="E113" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="113" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C113" t="s">
+    <row r="114" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C114" t="s">
         <v>75</v>
-      </c>
-    </row>
-    <row r="114" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="E114" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="115" spans="3:6" x14ac:dyDescent="0.2">
       <c r="E115" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="116" spans="3:6" x14ac:dyDescent="0.2">
       <c r="E116" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="117" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="E117" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="117" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="F117" t="s">
+    <row r="118" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="F118" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="118" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="E118" t="s">
+    <row r="119" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="E119" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="119" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C119" t="s">
+    <row r="120" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C120" t="s">
         <v>79</v>
-      </c>
-    </row>
-    <row r="120" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="E120" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="121" spans="3:6" x14ac:dyDescent="0.2">
       <c r="E121" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="122" spans="3:6" x14ac:dyDescent="0.2">
       <c r="E122" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="123" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="E123" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="123" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="F123" t="s">
+    <row r="124" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="F124" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="124" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="E124" t="s">
+    <row r="125" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="E125" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="125" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C125" t="s">
+    <row r="126" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C126" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="126" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="E126" t="s">
+    <row r="127" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="E127" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="128" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C128" t="s">
+    <row r="129" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="C129" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="129" spans="3:14" x14ac:dyDescent="0.2">
-      <c r="E129" t="s">
+    <row r="130" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="E130" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="130" spans="3:14" x14ac:dyDescent="0.2">
-      <c r="C130" t="s">
+    <row r="131" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="C131" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="131" spans="3:14" x14ac:dyDescent="0.2">
-      <c r="D131" s="1" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="133" spans="3:14" x14ac:dyDescent="0.2">
-      <c r="C133" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="D133" s="1"/>
-      <c r="E133" s="1"/>
-      <c r="F133" s="1"/>
-      <c r="G133" s="1"/>
-      <c r="H133" s="1"/>
-      <c r="I133" s="1"/>
-      <c r="J133" s="1"/>
-      <c r="K133" s="1"/>
-      <c r="L133" s="1"/>
-      <c r="M133" s="1"/>
-      <c r="N133" s="1"/>
+    <row r="132" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="D132" s="1" t="s">
+        <v>193</v>
+      </c>
     </row>
     <row r="134" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C134" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D134" s="1"/>
       <c r="E134" s="1"/>
@@ -2123,6 +2172,22 @@
       <c r="M134" s="1"/>
       <c r="N134" s="1"/>
     </row>
+    <row r="135" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="C135" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="D135" s="1"/>
+      <c r="E135" s="1"/>
+      <c r="F135" s="1"/>
+      <c r="G135" s="1"/>
+      <c r="H135" s="1"/>
+      <c r="I135" s="1"/>
+      <c r="J135" s="1"/>
+      <c r="K135" s="1"/>
+      <c r="L135" s="1"/>
+      <c r="M135" s="1"/>
+      <c r="N135" s="1"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2134,8 +2199,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6FED2DB9-968D-4468-9AE0-3CE8F1D4D2CC}">
   <dimension ref="C7:S170"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="K22" sqref="K22"/>
+    <sheetView topLeftCell="B10" workbookViewId="0">
+      <selection activeCell="L28" sqref="L28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2145,18 +2210,18 @@
   <sheetData>
     <row r="7" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C7" s="3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="8" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C8" s="3"/>
       <c r="D8" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="10" spans="3:14" x14ac:dyDescent="0.2">
       <c r="D10" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="11" spans="3:14" x14ac:dyDescent="0.2">
@@ -2198,7 +2263,7 @@
       <c r="L13" s="2"/>
       <c r="M13" s="2"/>
       <c r="N13" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="14" spans="3:14" x14ac:dyDescent="0.2">
@@ -2214,7 +2279,7 @@
     </row>
     <row r="17" spans="4:13" x14ac:dyDescent="0.2">
       <c r="D17" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="18" spans="4:13" x14ac:dyDescent="0.2">
@@ -2274,6 +2339,9 @@
       </c>
     </row>
     <row r="28" spans="4:13" x14ac:dyDescent="0.2">
+      <c r="J28" t="s">
+        <v>240</v>
+      </c>
       <c r="L28" t="s">
         <v>97</v>
       </c>
@@ -2284,6 +2352,9 @@
       </c>
     </row>
     <row r="31" spans="4:13" x14ac:dyDescent="0.2">
+      <c r="J31" t="s">
+        <v>241</v>
+      </c>
       <c r="L31" t="s">
         <v>104</v>
       </c>
@@ -2300,18 +2371,18 @@
     </row>
     <row r="37" spans="3:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C37" s="3" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="38" spans="3:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D38" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="39" spans="3:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="40" spans="3:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D40" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="41" spans="3:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2322,26 +2393,26 @@
     <row r="46" spans="3:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="50" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C50" s="3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="51" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C51" s="3"/>
       <c r="D51" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="52" spans="3:14" x14ac:dyDescent="0.2">
       <c r="D52" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="M52" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="54" spans="3:14" x14ac:dyDescent="0.2">
       <c r="D54" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="55" spans="3:14" x14ac:dyDescent="0.2">
@@ -2374,7 +2445,7 @@
     </row>
     <row r="59" spans="3:14" x14ac:dyDescent="0.2">
       <c r="D59" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="60" spans="3:14" x14ac:dyDescent="0.2">
@@ -2405,114 +2476,117 @@
         <v>30</v>
       </c>
     </row>
-    <row r="65" spans="4:13" x14ac:dyDescent="0.2">
+    <row r="65" spans="3:13" x14ac:dyDescent="0.2">
       <c r="M65" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="66" spans="4:13" x14ac:dyDescent="0.2">
+    <row r="66" spans="3:13" x14ac:dyDescent="0.2">
       <c r="L66" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="67" spans="4:13" x14ac:dyDescent="0.2">
+    <row r="67" spans="3:13" x14ac:dyDescent="0.2">
       <c r="L67" s="1" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="68" spans="4:13" x14ac:dyDescent="0.2">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="68" spans="3:13" x14ac:dyDescent="0.2">
       <c r="L68" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="69" spans="4:13" x14ac:dyDescent="0.2">
+    <row r="69" spans="3:13" x14ac:dyDescent="0.2">
       <c r="L69" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="72" spans="4:13" x14ac:dyDescent="0.2">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="72" spans="3:13" x14ac:dyDescent="0.2">
       <c r="D72" s="1" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="73" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="E73" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="M73" s="3" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="74" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="E74" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="73" spans="4:13" x14ac:dyDescent="0.2">
-      <c r="E73" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="M73" s="3" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="74" spans="4:13" x14ac:dyDescent="0.2">
-      <c r="E74" t="s">
+    <row r="75" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="C75" s="5" t="s">
+        <v>242</v>
+      </c>
+      <c r="E75" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="75" spans="4:13" x14ac:dyDescent="0.2">
-      <c r="E75" t="s">
+    <row r="76" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="E76" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="76" spans="4:13" x14ac:dyDescent="0.2">
-      <c r="E76" t="s">
+    <row r="77" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="E77" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="77" spans="4:13" x14ac:dyDescent="0.2">
-      <c r="E77" t="s">
+    <row r="78" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="E78" t="s">
         <v>127</v>
-      </c>
-    </row>
-    <row r="78" spans="4:13" x14ac:dyDescent="0.2">
-      <c r="E78" t="s">
-        <v>128</v>
       </c>
     </row>
     <row r="82" spans="3:19" x14ac:dyDescent="0.2">
       <c r="D82" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="83" spans="3:19" x14ac:dyDescent="0.2">
       <c r="D83" s="1"/>
       <c r="E83" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="84" spans="3:19" x14ac:dyDescent="0.2">
       <c r="D84" s="1"/>
       <c r="F84" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="85" spans="3:19" x14ac:dyDescent="0.2">
       <c r="D85" s="1"/>
       <c r="F85" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="86" spans="3:19" x14ac:dyDescent="0.2">
       <c r="F86" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="R86" t="s">
         <v>140</v>
-      </c>
-      <c r="R86" t="s">
-        <v>141</v>
       </c>
     </row>
     <row r="87" spans="3:19" x14ac:dyDescent="0.2">
       <c r="R87" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="S87" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="89" spans="3:19" x14ac:dyDescent="0.2">
       <c r="D89" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="E89" t="s">
         <v>133</v>
-      </c>
-      <c r="E89" t="s">
-        <v>134</v>
       </c>
       <c r="F89" s="6"/>
     </row>
@@ -2521,23 +2595,23 @@
     </row>
     <row r="96" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C96" s="3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="97" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C97" s="3"/>
       <c r="D97" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="98" spans="3:4" x14ac:dyDescent="0.2">
       <c r="D98" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="101" spans="3:4" x14ac:dyDescent="0.2">
       <c r="D101" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="105" spans="3:4" x14ac:dyDescent="0.2">
@@ -2547,32 +2621,32 @@
     </row>
     <row r="106" spans="3:4" x14ac:dyDescent="0.2">
       <c r="D106" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="107" spans="3:4" x14ac:dyDescent="0.2">
       <c r="D107" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="110" spans="3:4" x14ac:dyDescent="0.2">
       <c r="D110" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="120" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C120" s="3" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="122" spans="3:7" x14ac:dyDescent="0.2">
       <c r="F122" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="123" spans="3:7" x14ac:dyDescent="0.2">
       <c r="F123" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="124" spans="3:7" x14ac:dyDescent="0.2">
@@ -2582,7 +2656,7 @@
     </row>
     <row r="125" spans="3:7" x14ac:dyDescent="0.2">
       <c r="G125" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="126" spans="3:7" x14ac:dyDescent="0.2">
@@ -2592,7 +2666,7 @@
     </row>
     <row r="127" spans="3:7" x14ac:dyDescent="0.2">
       <c r="F127" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="128" spans="3:7" x14ac:dyDescent="0.2">
@@ -2602,7 +2676,7 @@
     </row>
     <row r="129" spans="3:9" x14ac:dyDescent="0.2">
       <c r="G129" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="130" spans="3:9" x14ac:dyDescent="0.2">
@@ -2612,27 +2686,27 @@
     </row>
     <row r="132" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C132" s="3" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="133" spans="3:9" x14ac:dyDescent="0.2">
       <c r="D133" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="134" spans="3:9" x14ac:dyDescent="0.2">
       <c r="E134" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="135" spans="3:9" x14ac:dyDescent="0.2">
       <c r="E135" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="136" spans="3:9" x14ac:dyDescent="0.2">
       <c r="E136" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="137" spans="3:9" x14ac:dyDescent="0.2">
@@ -2640,7 +2714,7 @@
     </row>
     <row r="138" spans="3:9" x14ac:dyDescent="0.2">
       <c r="F138" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="139" spans="3:9" x14ac:dyDescent="0.2">
@@ -2650,7 +2724,7 @@
     </row>
     <row r="140" spans="3:9" x14ac:dyDescent="0.2">
       <c r="G140" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="141" spans="3:9" x14ac:dyDescent="0.2">
@@ -2660,7 +2734,7 @@
     </row>
     <row r="142" spans="3:9" x14ac:dyDescent="0.2">
       <c r="H142" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="143" spans="3:9" x14ac:dyDescent="0.2">
@@ -2670,7 +2744,7 @@
     </row>
     <row r="144" spans="3:9" x14ac:dyDescent="0.2">
       <c r="I144" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="145" spans="7:9" x14ac:dyDescent="0.2">
@@ -2680,7 +2754,7 @@
     </row>
     <row r="146" spans="7:9" x14ac:dyDescent="0.2">
       <c r="H146" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="147" spans="7:9" x14ac:dyDescent="0.2">
@@ -2690,7 +2764,7 @@
     </row>
     <row r="148" spans="7:9" x14ac:dyDescent="0.2">
       <c r="I148" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="149" spans="7:9" x14ac:dyDescent="0.2">
@@ -2700,7 +2774,7 @@
     </row>
     <row r="150" spans="7:9" x14ac:dyDescent="0.2">
       <c r="H150" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="151" spans="7:9" x14ac:dyDescent="0.2">
@@ -2710,7 +2784,7 @@
     </row>
     <row r="152" spans="7:9" x14ac:dyDescent="0.2">
       <c r="I152" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="153" spans="7:9" x14ac:dyDescent="0.2">
@@ -2720,7 +2794,7 @@
     </row>
     <row r="154" spans="7:9" x14ac:dyDescent="0.2">
       <c r="H154" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="155" spans="7:9" x14ac:dyDescent="0.2">
@@ -2730,7 +2804,7 @@
     </row>
     <row r="156" spans="7:9" x14ac:dyDescent="0.2">
       <c r="I156" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="157" spans="7:9" x14ac:dyDescent="0.2">
@@ -2745,7 +2819,7 @@
     </row>
     <row r="159" spans="7:9" x14ac:dyDescent="0.2">
       <c r="G159" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="160" spans="7:9" x14ac:dyDescent="0.2">
@@ -2755,7 +2829,7 @@
     </row>
     <row r="161" spans="4:8" x14ac:dyDescent="0.2">
       <c r="H161" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="162" spans="4:8" x14ac:dyDescent="0.2">
@@ -2770,27 +2844,27 @@
     </row>
     <row r="166" spans="4:8" x14ac:dyDescent="0.2">
       <c r="D166" s="1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="167" spans="4:8" x14ac:dyDescent="0.2">
       <c r="D167" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="168" spans="4:8" x14ac:dyDescent="0.2">
       <c r="E168" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="169" spans="4:8" x14ac:dyDescent="0.2">
       <c r="F169" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="170" spans="4:8" x14ac:dyDescent="0.2">
       <c r="F170" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
   </sheetData>
@@ -2803,7 +2877,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BED76CBF-4E1F-4A21-97DD-4F9685B90CD3}">
   <dimension ref="C6:M47"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A25" workbookViewId="0">
       <selection activeCell="K50" sqref="K50"/>
     </sheetView>
   </sheetViews>
@@ -2811,7 +2885,7 @@
   <sheetData>
     <row r="6" spans="4:6" x14ac:dyDescent="0.2">
       <c r="D6" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="7" spans="4:6" x14ac:dyDescent="0.2">
@@ -2821,17 +2895,17 @@
     </row>
     <row r="9" spans="4:6" x14ac:dyDescent="0.2">
       <c r="E9" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="11" spans="4:6" x14ac:dyDescent="0.2">
       <c r="F11" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="22" spans="6:11" x14ac:dyDescent="0.2">
       <c r="F22" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="23" spans="6:11" x14ac:dyDescent="0.2">
@@ -2839,7 +2913,7 @@
         <v>1</v>
       </c>
       <c r="H23" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="24" spans="6:11" x14ac:dyDescent="0.2">
@@ -2854,7 +2928,7 @@
     </row>
     <row r="26" spans="6:11" x14ac:dyDescent="0.2">
       <c r="J26" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="27" spans="6:11" x14ac:dyDescent="0.2">
@@ -2864,7 +2938,7 @@
     </row>
     <row r="28" spans="6:11" x14ac:dyDescent="0.2">
       <c r="K28" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="29" spans="6:11" x14ac:dyDescent="0.2">
@@ -2874,7 +2948,7 @@
     </row>
     <row r="30" spans="6:11" x14ac:dyDescent="0.2">
       <c r="J30" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="31" spans="6:11" x14ac:dyDescent="0.2">
@@ -2884,7 +2958,7 @@
     </row>
     <row r="32" spans="6:11" x14ac:dyDescent="0.2">
       <c r="K32" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="33" spans="3:13" x14ac:dyDescent="0.2">
@@ -2892,42 +2966,42 @@
         <v>33</v>
       </c>
       <c r="M33" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="34" spans="3:13" x14ac:dyDescent="0.2">
       <c r="M34" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="35" spans="3:13" x14ac:dyDescent="0.2">
       <c r="M35" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="36" spans="3:13" x14ac:dyDescent="0.2">
       <c r="M36" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="37" spans="3:13" x14ac:dyDescent="0.2">
       <c r="M37" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="38" spans="3:13" x14ac:dyDescent="0.2">
       <c r="D38" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="46" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C46" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="47" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C47" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
   </sheetData>
@@ -2954,37 +3028,37 @@
         <v>1</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C7" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C8" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="D11" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="D13" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
@@ -2992,42 +3066,42 @@
         <v>2</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="D21" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="D23" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="D25" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="D26" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
   </sheetData>
@@ -3040,7 +3114,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8481FB5-C7DD-4BBD-8F43-92A7BB624CA2}">
   <dimension ref="C6:U61"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A43" workbookViewId="0">
       <selection activeCell="N10" sqref="N10"/>
     </sheetView>
   </sheetViews>
@@ -3048,7 +3122,7 @@
   <sheetData>
     <row r="6" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C6" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="7" spans="3:7" x14ac:dyDescent="0.2">
@@ -3058,17 +3132,17 @@
     </row>
     <row r="9" spans="3:7" x14ac:dyDescent="0.2">
       <c r="D9" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="10" spans="3:7" x14ac:dyDescent="0.2">
       <c r="D10" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="11" spans="3:7" x14ac:dyDescent="0.2">
       <c r="D11" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="12" spans="3:7" x14ac:dyDescent="0.2">
@@ -3086,12 +3160,12 @@
         <v>2</v>
       </c>
       <c r="F15" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="16" spans="3:7" x14ac:dyDescent="0.2">
       <c r="G16" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="17" spans="5:14" x14ac:dyDescent="0.2">
@@ -3099,7 +3173,7 @@
         <v>3</v>
       </c>
       <c r="F17" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="19" spans="5:14" x14ac:dyDescent="0.2">
@@ -3107,7 +3181,7 @@
         <v>1</v>
       </c>
       <c r="H19" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="20" spans="5:14" x14ac:dyDescent="0.2">
@@ -3122,40 +3196,40 @@
     </row>
     <row r="23" spans="5:14" x14ac:dyDescent="0.2">
       <c r="I23" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="24" spans="5:14" x14ac:dyDescent="0.2">
       <c r="J24" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="25" spans="5:14" x14ac:dyDescent="0.2">
       <c r="K25" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="L25" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="26" spans="5:14" x14ac:dyDescent="0.2">
       <c r="L26" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="27" spans="5:14" x14ac:dyDescent="0.2">
       <c r="L27" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="28" spans="5:14" x14ac:dyDescent="0.2">
       <c r="K28" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="29" spans="5:14" x14ac:dyDescent="0.2">
       <c r="L29" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="30" spans="5:14" x14ac:dyDescent="0.2">
@@ -3168,7 +3242,7 @@
         <v>1</v>
       </c>
       <c r="N31" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="32" spans="5:14" x14ac:dyDescent="0.2">
@@ -3176,7 +3250,7 @@
         <v>2</v>
       </c>
       <c r="N32" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="33" spans="12:21" x14ac:dyDescent="0.2">
@@ -3184,7 +3258,7 @@
         <v>3</v>
       </c>
       <c r="N33" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="34" spans="12:21" x14ac:dyDescent="0.2">
@@ -3192,65 +3266,65 @@
         <v>4</v>
       </c>
       <c r="N34" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="U34" s="1" t="s">
         <v>230</v>
-      </c>
-      <c r="U34" s="1" t="s">
-        <v>231</v>
       </c>
     </row>
     <row r="35" spans="12:21" x14ac:dyDescent="0.2">
       <c r="O35" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="36" spans="12:21" x14ac:dyDescent="0.2">
       <c r="O36" s="1" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="37" spans="12:21" x14ac:dyDescent="0.2">
       <c r="O37" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="38" spans="12:21" x14ac:dyDescent="0.2">
       <c r="O38" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="39" spans="12:21" x14ac:dyDescent="0.2">
       <c r="P39" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="40" spans="12:21" x14ac:dyDescent="0.2">
       <c r="Q40" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="41" spans="12:21" x14ac:dyDescent="0.2">
       <c r="O41" s="1" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="42" spans="12:21" x14ac:dyDescent="0.2">
       <c r="O42" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="43" spans="12:21" x14ac:dyDescent="0.2">
       <c r="L43" s="1" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="44" spans="12:21" x14ac:dyDescent="0.2">
       <c r="L44" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="45" spans="12:21" x14ac:dyDescent="0.2">
       <c r="L45" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="60" spans="7:9" x14ac:dyDescent="0.2">
@@ -3258,12 +3332,12 @@
         <v>2</v>
       </c>
       <c r="H60" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="61" spans="7:9" x14ac:dyDescent="0.2">
       <c r="I61" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
   </sheetData>

--- a/doc/ue_compile.xlsx
+++ b/doc/ue_compile.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\ue\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EEE5AF4E-38C4-4FCB-89E5-A794253764BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F8533D9-F3CD-409E-B9FE-7D4CEB3FDD92}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,6 +19,7 @@
     <sheet name="Sheet2" sheetId="5" r:id="rId4"/>
     <sheet name="设置参数 " sheetId="6" r:id="rId5"/>
     <sheet name="流程" sheetId="7" r:id="rId6"/>
+    <sheet name="link-filter.exe" sheetId="8" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="342" uniqueCount="247">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="349" uniqueCount="254">
   <si>
     <t>工程</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -965,6 +966,29 @@
   </si>
   <si>
     <t>C:\Program Files (x86)\Microsoft Visual Studio\2019\Professional\VC\Tools\MSVC\14.29.30133\bin\HostX64\x64\lib.exe @"D:\UE4Simple\MyProject2\Intermediate\Build\Win64\UE4Editor\Debug\MyProject2\UE4Editor-MyProject2-Win64-Debug.lib.response"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1&gt;fuck[D:\Source\UE\UnrealEngine-4.26.2-release\Engine\Build\Windows\link-filter\link-filter.exe</t>
+  </si>
+  <si>
+    <t>1&gt;fuck2[-- "C:\Program Files (x86)\Microsoft Visual Studio\2019\Professional\VC\Tools\MSVC\14.29.30133\bin\HostX64\x64\link.exe" @"D:\UE4Simple\MyProject2\Intermediate\Build\Win64\UE4Editor\Debug\MyProject2\UE4Editor-MyProject2-Win64-Debug.dll.response"</t>
+  </si>
+  <si>
+    <t>1&gt;fuck[C:\Program Files (x86)\Microsoft Visual Studio\2019\Professional\VC\Tools\MSVC\14.29.30133\bin\HostX64\x64\lib.exe</t>
+  </si>
+  <si>
+    <t>Engine\Extras\Windows\link-filter</t>
+  </si>
+  <si>
+    <t>Engine\Extras\Windows\cl-filter</t>
+  </si>
+  <si>
+    <t>命令行调用link.exe，增加了一些参数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>编译.obj的，增加一些参数，内部自己创建子进程调用命令行</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1618,7 +1642,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EBB797F9-26C3-47AB-9485-3EC52454575D}">
   <dimension ref="B2:R135"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+    <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="P12" sqref="P12"/>
     </sheetView>
   </sheetViews>
@@ -3345,4 +3369,56 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{673DD1A4-57FD-4CB6-9576-9D700F8C9E76}">
+  <dimension ref="B6:D28"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="K24" sqref="K24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="6" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="C6" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="7" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="C7" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="8" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="C8" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="15" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B15" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="17" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="D17" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="26" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B26" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="28" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="D28" t="s">
+        <v>253</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/doc/ue_compile.xlsx
+++ b/doc/ue_compile.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25128"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\ue\doc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GitHub\ue\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F8533D9-F3CD-409E-B9FE-7D4CEB3FDD92}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,8 +19,9 @@
     <sheet name="设置参数 " sheetId="6" r:id="rId5"/>
     <sheet name="流程" sheetId="7" r:id="rId6"/>
     <sheet name="link-filter.exe" sheetId="8" r:id="rId7"/>
+    <sheet name="代码中宏定义的生成" sheetId="9" r:id="rId8"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="349" uniqueCount="254">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="378" uniqueCount="279">
   <si>
     <t>工程</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -991,12 +991,162 @@
     <t>编译.obj的，增加一些参数，内部自己创建子进程调用命令行</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>IS_MONOLITHIC</t>
+  </si>
+  <si>
+    <t>这个宏定义区分了IMPLEMENT_MODULE的实现方式，通过UBT设置</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>GlobalCompileEnvironment.Definitions.Add(String.Format("IS_MONOLITHIC={0}", ShouldCompileMonolithic() ? "1" : "0"));</t>
+  </si>
+  <si>
+    <t>GlobalCompileEnvironment.Definitions.Add(String.Format("WITH_ENGINE={0}", Rules.bCompileAgainstEngine ? "1" : "0"));</t>
+  </si>
+  <si>
+    <t>在UBT的SetupGlobalEnvironment函数里面设置这些宏</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>SetupGlobalEnvironment</t>
+  </si>
+  <si>
+    <t>大量的宏定义都是在这个里面生成的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">UBT </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>里面定义了所有的宏</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>然后在每一个.cpp对应的.response文件里面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MyTest001GameMode.gen.cpp.obj.response</t>
+  </si>
+  <si>
+    <t>/FI"E:\Project\UE5\MyTest001\Intermediate\Build\Win64\UE4Editor\Debug\MyTest001\Definitions.MyTest001.h"</t>
+  </si>
+  <si>
+    <r>
+      <t>使用</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>/FI</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>来强制加载该头文件，也就是所有的宏</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/FI (Name Forced Include File)</t>
+  </si>
+  <si>
+    <r>
+      <t>This option has the same effect as specifying the file with double quotation marks in an </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF171717"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>#include</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF171717"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t> directive on the first line of every source file specified on the command line, in the CL environment variable, or in a command file. If you use multiple </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF171717"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>/FI</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF171717"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t> options, files are included in the order they are processed by CL.</t>
+    </r>
+  </si>
+  <si>
+    <t>cl.exe程序指定的时候该参数意义</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PCH.Core.h</t>
+  </si>
+  <si>
+    <t>SharedPCH.Core.ShadowErrors.h</t>
+  </si>
+  <si>
+    <t>引擎模块：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>项目模块：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>针对宏定义会生成一个头文件：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Definitions.MyTest001.h</t>
+  </si>
+  <si>
+    <t>里面都是宏定义</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>最下面是包含的所有头文件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>这个是引擎的截图</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1064,6 +1214,45 @@
       <family val="2"/>
       <charset val="134"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="24"/>
+      <color rgb="FF171717"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF171717"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF171717"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -1085,7 +1274,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1093,6 +1282,12 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1230,6 +1425,49 @@
             </a14:hiddenFill>
           </a:ext>
         </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>390525</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>113134</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>171002</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="图片 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10277475" y="3286125"/>
+          <a:ext cx="9323809" cy="3580952"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
@@ -1499,7 +1737,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B7:G40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1639,7 +1877,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EBB797F9-26C3-47AB-9485-3EC52454575D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:R135"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
@@ -2220,7 +2458,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6FED2DB9-968D-4468-9AE0-3CE8F1D4D2CC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C7:S170"/>
   <sheetViews>
     <sheetView topLeftCell="B10" workbookViewId="0">
@@ -2898,7 +3136,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BED76CBF-4E1F-4A21-97DD-4F9685B90CD3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C6:M47"/>
   <sheetViews>
     <sheetView topLeftCell="A25" workbookViewId="0">
@@ -3035,7 +3273,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{88CE6445-038C-4611-82D4-D8201A50E153}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A6:D26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3135,7 +3373,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8481FB5-C7DD-4BBD-8F43-92A7BB624CA2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C6:U61"/>
   <sheetViews>
     <sheetView topLeftCell="A43" workbookViewId="0">
@@ -3372,11 +3610,11 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{673DD1A4-57FD-4CB6-9576-9D700F8C9E76}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B6:D28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="K24" sqref="K24"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="M35" sqref="M35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3421,4 +3659,172 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A5:O44"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="N13" sqref="N13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="17.875" customWidth="1"/>
+    <col min="2" max="2" width="12.875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5" s="7" t="s">
+        <v>254</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6" s="7"/>
+      <c r="B6" s="8" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7" s="7"/>
+      <c r="B7" s="8" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A8" s="7"/>
+      <c r="B8" s="8" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A17" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="O17" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="B18" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="B19" s="8" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="B20" s="8" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A23" s="1" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="B24" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="B25" s="1" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="C26" t="s">
+        <v>275</v>
+      </c>
+      <c r="I26" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="J26" s="2"/>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="I27" s="2"/>
+      <c r="J27" s="2"/>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="B28" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="I28" s="2"/>
+      <c r="J28" s="2"/>
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="C29" t="s">
+        <v>270</v>
+      </c>
+      <c r="I29" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="J29" s="2"/>
+    </row>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="C30" t="s">
+        <v>271</v>
+      </c>
+      <c r="I30" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="J30" s="2"/>
+    </row>
+    <row r="31" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="I31" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="J31" s="2"/>
+    </row>
+    <row r="33" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B33" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="35" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B35" t="s">
+        <v>263</v>
+      </c>
+      <c r="G35" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="37" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B37" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="38" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="C38" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="41" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="C41" s="1" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="42" spans="2:7" ht="37.5" x14ac:dyDescent="0.2">
+      <c r="C42" s="9" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="44" spans="2:7" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="C44" s="10" t="s">
+        <v>268</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
 </file>
--- a/doc/ue_compile.xlsx
+++ b/doc/ue_compile.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="7"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="378" uniqueCount="279">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="378" uniqueCount="280">
   <si>
     <t>工程</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1007,9 +1007,6 @@
   <si>
     <t>在UBT的SetupGlobalEnvironment函数里面设置这些宏</t>
     <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>SetupGlobalEnvironment</t>
   </si>
   <si>
     <t>大量的宏定义都是在这个里面生成的</t>
@@ -1127,18 +1124,27 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>里面都是宏定义</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>最下面是包含的所有头文件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>这个是引擎的截图</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>Definitions.MyTest001.h</t>
-  </si>
-  <si>
-    <t>里面都是宏定义</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>最下面是包含的所有头文件</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>这个是引擎的截图</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SetupGlobalEnvironment</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Module.Core.12_of_15.cpp</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2461,7 +2467,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C7:S170"/>
   <sheetViews>
-    <sheetView topLeftCell="B10" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="B10" workbookViewId="0">
       <selection activeCell="L28" sqref="L28"/>
     </sheetView>
   </sheetViews>
@@ -2488,7 +2494,7 @@
     </row>
     <row r="11" spans="3:14" x14ac:dyDescent="0.2">
       <c r="E11" t="s">
-        <v>88</v>
+        <v>279</v>
       </c>
       <c r="J11" s="1" t="s">
         <v>102</v>
@@ -3139,7 +3145,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C6:M47"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="K50" sqref="K50"/>
     </sheetView>
   </sheetViews>
@@ -3376,7 +3382,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C6:U61"/>
   <sheetViews>
-    <sheetView topLeftCell="A43" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="N10" sqref="N10"/>
     </sheetView>
   </sheetViews>
@@ -3665,8 +3671,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A5:O44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="N13" sqref="N13"/>
+    <sheetView topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="F28" sqref="F28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3703,15 +3709,15 @@
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
-        <v>259</v>
+        <v>278</v>
       </c>
       <c r="O17" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B18" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.2">
@@ -3726,25 +3732,25 @@
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B24" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B25" s="1" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C26" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="I26" s="1" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="J26" s="2"/>
     </row>
@@ -3754,71 +3760,71 @@
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B28" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="I28" s="2"/>
       <c r="J28" s="2"/>
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C29" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="I29" s="2" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="J29" s="2"/>
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C30" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="I30" s="2" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="J30" s="2"/>
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.2">
       <c r="I31" s="2" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="J31" s="2"/>
     </row>
     <row r="33" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B33" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="35" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B35" t="s">
+        <v>262</v>
+      </c>
+      <c r="G35" t="s">
         <v>263</v>
-      </c>
-      <c r="G35" t="s">
-        <v>264</v>
       </c>
     </row>
     <row r="37" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B37" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="38" spans="2:7" x14ac:dyDescent="0.2">
       <c r="C38" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="41" spans="2:7" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="42" spans="2:7" ht="37.5" x14ac:dyDescent="0.2">
       <c r="C42" s="9" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="44" spans="2:7" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C44" s="10" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
   </sheetData>

--- a/doc/ue_compile.xlsx
+++ b/doc/ue_compile.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25128"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GitHub\ue\doc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\ue\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC34ED20-20FB-49BA-905D-FA62414752AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -18,28 +19,22 @@
     <sheet name="Sheet2" sheetId="5" r:id="rId4"/>
     <sheet name="设置参数 " sheetId="6" r:id="rId5"/>
     <sheet name="流程" sheetId="7" r:id="rId6"/>
-    <sheet name="link-filter.exe" sheetId="8" r:id="rId7"/>
-    <sheet name="代码中宏定义的生成" sheetId="9" r:id="rId8"/>
+    <sheet name="简化流程" sheetId="11" r:id="rId7"/>
+    <sheet name="link-filter.exe" sheetId="8" r:id="rId8"/>
+    <sheet name="代码中宏定义的生成" sheetId="9" r:id="rId9"/>
+    <sheet name="编译命令行" sheetId="10" r:id="rId10"/>
   </sheets>
   <calcPr calcId="162913" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="378" uniqueCount="280">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="420" uniqueCount="298">
   <si>
     <t>工程</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1147,11 +1142,77 @@
     <t>Module.Core.12_of_15.cpp</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>编译源文件，生成.obj</t>
+  </si>
+  <si>
+    <t>D:\Source\UE\UnrealEngine-4.26.2-release\Engine\Build\Windows\cl-filter\cl-filter.exe -dependencies=D:\UE4Simple\MyProject2\Intermediate\Build\Win64\UE4Editor\Debug\MyProject2\MyUserWidget.gen.cpp.txt -compiler="C:\Program Files (x86)\Microsoft Visual Studio\2019\Professional\VC\Tools\MSVC\14.29.30133\bin\HostX64\x64\cl.exe" -- "C:\Program Files (x86)\Microsoft Visual Studio\2019\Professional\VC\Tools\MSVC\14.29.30133\bin\HostX64\x64\cl.exe"  @"D:\UE4Simple\MyProject2\Intermediate\Build\Win64\UE4Editor\Debug\MyProject2\MyUserWidget.gen.cpp.obj.response" /showIncludes</t>
+  </si>
+  <si>
+    <t>D:\Source\UE\UnrealEngine-4.26.2-release\Engine\Build\Windows\cl-filter\cl-filter.exe -dependencies=D:\UE4Simple\MyProject2\Intermediate\Build\Win64\UE4Editor\Debug\MyProject2\MyUserWidget.cpp.txt -compiler="C:\Program Files (x86)\Microsoft Visual Studio\2019\Professional\VC\Tools\MSVC\14.29.30133\bin\HostX64\x64\cl.exe" -- "C:\Program Files (x86)\Microsoft Visual Studio\2019\Professional\VC\Tools\MSVC\14.29.30133\bin\HostX64\x64\cl.exe"  @"D:\UE4Simple\MyProject2\Intermediate\Build\Win64\UE4Editor\Debug\MyProject2\MyUserWidget.cpp.obj.response" /showIncludes</t>
+  </si>
+  <si>
+    <t>连接.obj文件，生成.dll</t>
+  </si>
+  <si>
+    <t>D:\Source\UE\UnrealEngine-4.26.2-release\Engine\Build\Windows\link-filter\link-filter.exe -- "C:\Program Files (x86)\Microsoft Visual Studio\2019\Professional\VC\Tools\MSVC\14.29.30133\bin\HostX64\x64\link.exe" @"D:\UE4Simple\MyProject2\Intermediate\Build\Win64\UE4Editor\Debug\MyProject2\UE4Editor-MyProject2-Win64-Debug.dll.response"</t>
+  </si>
+  <si>
+    <t>通过.dll导出.lib，Windows特有</t>
+  </si>
+  <si>
+    <t>int Result = Mode.Execute(Arguments);</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UBT启动函数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>挨个调用CreateMakeFile函数，目的就是生成要编译的宏定义头文件，.response文件等</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>关于CreateMakeFile函数（假定不存在makefile.bin文件）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mode.Build(TargetDescriptors, BuildConfiguration, WorkingSet, Options, WriteOutdatedActionsFile, bSkipPreBuildTargets);</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TargetMakefile NewMakefile = CreateMakefile(BuildConfiguration, TargetDescriptors[Idx], WorkingSet);</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>开始处理-这一步其实就生成Intermediate目录下大量的.response和对应的.cpp文件了(.response就是编译.cpp的参数等信息)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>创建BuildMode类型对象并执行</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>根据上面生成的宏定义文件，.response等文件，调用编译处理指令，进行编译连接等处理，生成目标文件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SetupGlobalEnvironment函数，生成所有的宏定义</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cl-filter.exe，linker-filter, lib.exe等</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>例如IS_MONOLITHIC宏定义</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1280,7 +1341,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1294,6 +1355,10 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1455,7 +1520,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="图片 1"/>
+        <xdr:cNvPr id="2" name="图片 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1470,6 +1541,187 @@
         <a:xfrm>
           <a:off x="10277475" y="3286125"/>
           <a:ext cx="9323809" cy="3580952"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>8010525</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>684469</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>18640</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="图片 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5684B88F-530C-5253-0A29-7B58E45349B3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9382125" y="180975"/>
+          <a:ext cx="10647619" cy="3276190"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>608281</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>104375</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="图片 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{83D5BA2B-7ADE-79EA-EB13-2C5DB9331DE2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12144375" y="3781425"/>
+          <a:ext cx="10552381" cy="3200000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>485775</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>198261</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>27923</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="图片 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BCA5F841-5CE8-2754-2B9A-DC8BFB8C84F8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12287250" y="7296150"/>
+          <a:ext cx="14114286" cy="5219048"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>657225</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>9171339</xdr:colOff>
+      <xdr:row>78</xdr:row>
+      <xdr:rowOff>123231</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="图片 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B54D9818-88D6-8C3B-86FB-28DAFFF3B5F5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="657225" y="11477625"/>
+          <a:ext cx="9885714" cy="4752381"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1743,7 +1995,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B7:G40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1882,8 +2134,70 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{59F75BF7-991A-4362-ADB0-6AFC40A650AB}">
+  <dimension ref="B7:C44"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="9" style="3"/>
+    <col min="3" max="3" width="136.875" style="11" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="7" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B7" s="3" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="9" spans="2:3" ht="71.25" x14ac:dyDescent="0.2">
+      <c r="C9" s="11" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="22" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B22" s="3" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="24" spans="2:3" ht="71.25" x14ac:dyDescent="0.2">
+      <c r="C24" s="11" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="33" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B33" s="3" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="35" spans="2:3" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="C35" s="11" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="42" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B42" s="3" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="44" spans="2:3" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="C44" s="11" t="s">
+        <v>246</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B2:R135"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
@@ -2464,10 +2778,10 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="C7:S170"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B10" workbookViewId="0">
+    <sheetView topLeftCell="B10" workbookViewId="0">
       <selection activeCell="L28" sqref="L28"/>
     </sheetView>
   </sheetViews>
@@ -3142,7 +3456,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="C6:M47"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3279,7 +3593,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A6:D26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3379,11 +3693,11 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="C6:U61"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="N10" sqref="N10"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="F31" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3616,7 +3930,252 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E6B3497-9A57-4ACB-91D3-76F3DED03054}">
+  <dimension ref="C6:M41"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="U26" sqref="U26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="6" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C6" s="1" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="7" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C7" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="8" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C8" s="1"/>
+      <c r="D8" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+    </row>
+    <row r="9" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="D9" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="10" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="D10" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="11" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="D11" s="12" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="12" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="D12" s="12"/>
+    </row>
+    <row r="13" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="D13" s="1">
+        <v>1</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="14" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="E14" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="15" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="F15" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="17" spans="5:13" x14ac:dyDescent="0.2">
+      <c r="E17" s="1" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="18" spans="5:13" x14ac:dyDescent="0.2">
+      <c r="E18" s="1">
+        <v>1</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="19" spans="5:13" x14ac:dyDescent="0.2">
+      <c r="E19" s="1"/>
+      <c r="F19" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="20" spans="5:13" x14ac:dyDescent="0.2">
+      <c r="E20" s="1"/>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="21" spans="5:13" x14ac:dyDescent="0.2">
+      <c r="E21" s="1"/>
+      <c r="F21">
+        <v>2</v>
+      </c>
+      <c r="G21" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="22" spans="5:13" x14ac:dyDescent="0.2">
+      <c r="E22" s="1"/>
+      <c r="F22">
+        <v>3</v>
+      </c>
+      <c r="G22" t="s">
+        <v>228</v>
+      </c>
+      <c r="M22" s="1" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="23" spans="5:13" x14ac:dyDescent="0.2">
+      <c r="E23" s="1"/>
+      <c r="F23">
+        <v>4</v>
+      </c>
+      <c r="G23" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="24" spans="5:13" x14ac:dyDescent="0.2">
+      <c r="E24" s="1"/>
+      <c r="H24" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="25" spans="5:13" x14ac:dyDescent="0.2">
+      <c r="E25" s="1"/>
+      <c r="H25" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="26" spans="5:13" x14ac:dyDescent="0.2">
+      <c r="E26" s="1"/>
+      <c r="H26" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="27" spans="5:13" x14ac:dyDescent="0.2">
+      <c r="E27" s="1"/>
+      <c r="H27" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="28" spans="5:13" x14ac:dyDescent="0.2">
+      <c r="E28" s="1"/>
+      <c r="I28" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="29" spans="5:13" x14ac:dyDescent="0.2">
+      <c r="E29" s="1"/>
+      <c r="J29" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="30" spans="5:13" x14ac:dyDescent="0.2">
+      <c r="E30" s="1"/>
+      <c r="H30" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="31" spans="5:13" x14ac:dyDescent="0.2">
+      <c r="E31" s="1"/>
+      <c r="H31" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="32" spans="5:13" x14ac:dyDescent="0.2">
+      <c r="E32" s="1">
+        <v>2</v>
+      </c>
+      <c r="F32" s="1" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="33" spans="4:13" x14ac:dyDescent="0.2">
+      <c r="E33" s="1"/>
+      <c r="F33" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="34" spans="4:13" x14ac:dyDescent="0.2">
+      <c r="E34" s="1"/>
+      <c r="F34">
+        <v>1</v>
+      </c>
+      <c r="G34" t="s">
+        <v>295</v>
+      </c>
+      <c r="M34" s="1" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="35" spans="4:13" x14ac:dyDescent="0.2">
+      <c r="F35">
+        <v>2</v>
+      </c>
+      <c r="G35" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="36" spans="4:13" x14ac:dyDescent="0.2">
+      <c r="F36">
+        <v>3</v>
+      </c>
+      <c r="G36" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="39" spans="4:13" x14ac:dyDescent="0.2">
+      <c r="D39" s="1">
+        <v>2</v>
+      </c>
+      <c r="E39" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="F39" s="2"/>
+      <c r="G39" s="2"/>
+      <c r="H39" s="2"/>
+      <c r="I39" s="2"/>
+    </row>
+    <row r="40" spans="4:13" x14ac:dyDescent="0.2">
+      <c r="D40" s="1"/>
+      <c r="E40" s="2" t="s">
+        <v>296</v>
+      </c>
+      <c r="F40" s="2"/>
+      <c r="G40" s="2"/>
+      <c r="H40" s="2"/>
+    </row>
+    <row r="41" spans="4:13" x14ac:dyDescent="0.2">
+      <c r="E41" t="s">
+        <v>215</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="B6:D28"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
@@ -3667,12 +4226,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A5:O44"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="F28" sqref="F28"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>

--- a/doc/ue_compile.xlsx
+++ b/doc/ue_compile.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\ue\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC34ED20-20FB-49BA-905D-FA62414752AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B563427C-A79C-4EEF-B68B-BB4368F6F357}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="420" uniqueCount="298">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="422" uniqueCount="300">
   <si>
     <t>工程</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1207,6 +1207,13 @@
   <si>
     <t>例如IS_MONOLITHIC宏定义</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>编译exe</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>D:\Source\UE\UnrealEngine-4.26.2-release\Engine\Build\Windows\link-filter\link-filter.exe -- "C:\Program Files (x86)\Microsoft Visual Studio\2019\Professional\VC\Tools\MSVC\14.29.30133\bin\HostX64\x64\link.exe" @"D:\UE4Simple\MyProject2\Intermediate\Build\Win64\MyProject2\Debug\MyProject2-Win64-Debug.exe.response"</t>
   </si>
 </sst>
 </file>
@@ -1688,16 +1695,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>657225</xdr:colOff>
-      <xdr:row>52</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>409575</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>9171339</xdr:colOff>
-      <xdr:row>78</xdr:row>
-      <xdr:rowOff>123231</xdr:rowOff>
+      <xdr:colOff>10295289</xdr:colOff>
+      <xdr:row>71</xdr:row>
+      <xdr:rowOff>47031</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1720,8 +1727,52 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="657225" y="11477625"/>
+          <a:off x="1781175" y="10134600"/>
           <a:ext cx="9885714" cy="4752381"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>466725</xdr:colOff>
+      <xdr:row>82</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>398755</xdr:colOff>
+      <xdr:row>102</xdr:row>
+      <xdr:rowOff>142412</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="图片 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CB2E08E6-7254-FA8F-3BDA-19EBCF9F3FD7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1838325" y="17249775"/>
+          <a:ext cx="10361905" cy="3704762"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2136,10 +2187,10 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{59F75BF7-991A-4362-ADB0-6AFC40A650AB}">
-  <dimension ref="B7:C44"/>
+  <dimension ref="B7:C77"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+    <sheetView tabSelected="1" topLeftCell="A73" workbookViewId="0">
+      <selection activeCell="C109" sqref="C109"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2186,6 +2237,16 @@
     <row r="44" spans="2:3" ht="28.5" x14ac:dyDescent="0.2">
       <c r="C44" s="11" t="s">
         <v>246</v>
+      </c>
+    </row>
+    <row r="76" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B76" s="3" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="77" spans="2:3" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="C77" s="11" t="s">
+        <v>299</v>
       </c>
     </row>
   </sheetData>
@@ -3933,7 +3994,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E6B3497-9A57-4ACB-91D3-76F3DED03054}">
   <dimension ref="C6:M41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="U26" sqref="U26"/>
     </sheetView>
   </sheetViews>

--- a/doc/ue_compile.xlsx
+++ b/doc/ue_compile.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25128"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25601"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\ue\doc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GITHUB\ue\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B563427C-A79C-4EEF-B68B-BB4368F6F357}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A38D7B30-D1A0-4E96-9E88-A66D827A3E08}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="1" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -23,6 +23,7 @@
     <sheet name="link-filter.exe" sheetId="8" r:id="rId8"/>
     <sheet name="代码中宏定义的生成" sheetId="9" r:id="rId9"/>
     <sheet name="编译命令行" sheetId="10" r:id="rId10"/>
+    <sheet name="优化指令" sheetId="12" r:id="rId11"/>
   </sheets>
   <calcPr calcId="162913" iterateDelta="1E-4"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="422" uniqueCount="300">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="435" uniqueCount="313">
   <si>
     <t>工程</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1214,6 +1215,46 @@
   </si>
   <si>
     <t>D:\Source\UE\UnrealEngine-4.26.2-release\Engine\Build\Windows\link-filter\link-filter.exe -- "C:\Program Files (x86)\Microsoft Visual Studio\2019\Professional\VC\Tools\MSVC\14.29.30133\bin\HostX64\x64\link.exe" @"D:\UE4Simple\MyProject2\Intermediate\Build\Win64\MyProject2\Debug\MyProject2-Win64-Debug.exe.response"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BuildKeys.Add(TEXT("bCompileApex")); </t>
+  </si>
+  <si>
+    <t>BuildKeys.Add(TEXT("bCompileICU"));</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BuildKeys.Add(TEXT("bCompileSimplygon")); </t>
+  </si>
+  <si>
+    <t>BuildKeys.Add(TEXT("bCompileSimplygonSSF"));</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BuildKeys.Add(TEXT("bCompileRecast")); </t>
+  </si>
+  <si>
+    <t>BuildKeys.Add(TEXT("bCompileSpeedTree"));</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BuildKeys.Add(TEXT("bCompileWithPluginSupport")); </t>
+  </si>
+  <si>
+    <t xml:space="preserve">BuildKeys.Add(TEXT("bCompilePhysXVehicle")); </t>
+  </si>
+  <si>
+    <t>BuildKeys.Add(TEXT("bCompileFreeType"));</t>
+  </si>
+  <si>
+    <t>BuildKeys.Add(TEXT("bCompileForSize"));</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BuildKeys.Add(TEXT("bCompileCEF3")); </t>
+  </si>
+  <si>
+    <t>BuildKeys.Add(TEXT("bCompileCustomSQLitePlatform"));</t>
+  </si>
+  <si>
+    <t>相关的可以开启和关闭</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -2189,7 +2230,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{59F75BF7-991A-4362-ADB0-6AFC40A650AB}">
   <dimension ref="B7:C77"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A73" workbookViewId="0">
+    <sheetView topLeftCell="A73" workbookViewId="0">
       <selection activeCell="C109" sqref="C109"/>
     </sheetView>
   </sheetViews>
@@ -2254,6 +2295,88 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BDB646DC-43E8-4330-BBBA-A97CF027E328}">
+  <dimension ref="B3:C15"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K11" sqref="K11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="3" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B3" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="4" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="C4" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="5" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="C5" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="6" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="C6" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="7" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="C7" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="8" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="C8" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="9" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="C9" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="10" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="C10" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="11" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="C11" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="12" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="C12" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="13" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="C13" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="14" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="C14" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="15" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="C15" t="s">
+        <v>311</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
